--- a/Code/Results/Cases/Case_2_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_44/res_line/pl_mw.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.762793901102867</v>
+        <v>1.762793901102668</v>
       </c>
       <c r="C2">
-        <v>0.7885909592853295</v>
+        <v>0.7885909592855853</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06817536741943897</v>
+        <v>0.06817536741948871</v>
       </c>
       <c r="F2">
-        <v>2.221538664980585</v>
+        <v>2.221538664980599</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.621419314817246</v>
+        <v>1.621419314817231</v>
       </c>
       <c r="I2">
-        <v>0.2256467085931391</v>
+        <v>0.2256467085931639</v>
       </c>
       <c r="J2">
-        <v>0.5898665797064027</v>
+        <v>0.58986657970636</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.6618571672653886</v>
+        <v>0.6618571672653673</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.517134932109286</v>
+        <v>1.517134932109315</v>
       </c>
       <c r="C3">
-        <v>0.6772370834823107</v>
+        <v>0.6772370834824812</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05888538038190561</v>
+        <v>0.05888538038192692</v>
       </c>
       <c r="F3">
-        <v>1.935566270471597</v>
+        <v>1.935566270471583</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.467246747045664</v>
+        <v>1.467246747045678</v>
       </c>
       <c r="I3">
-        <v>0.213298938518534</v>
+        <v>0.2132989385185304</v>
       </c>
       <c r="J3">
-        <v>0.5073073326654125</v>
+        <v>0.5073073326653983</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.368715080721728</v>
+        <v>1.368715080721586</v>
       </c>
       <c r="C4">
-        <v>0.6101958643838259</v>
+        <v>0.6101958643836269</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05323729526384113</v>
+        <v>0.05323729526381271</v>
       </c>
       <c r="F4">
-        <v>1.763797917380344</v>
+        <v>1.76379791738033</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.375603787894107</v>
+        <v>1.375603787894093</v>
       </c>
       <c r="I4">
-        <v>0.2061094819920974</v>
+        <v>0.2061094819921081</v>
       </c>
       <c r="J4">
-        <v>0.4574839918528184</v>
+        <v>0.4574839918528255</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5139836178185888</v>
+        <v>0.5139836178185959</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.308746126066325</v>
+        <v>1.308746126066467</v>
       </c>
       <c r="C5">
-        <v>0.5831596349922847</v>
+        <v>0.5831596349920574</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05094744250100192</v>
+        <v>0.05094744250099836</v>
       </c>
       <c r="F5">
         <v>1.694640717275249</v>
@@ -547,16 +547,16 @@
         <v>1.33893091887137</v>
       </c>
       <c r="I5">
-        <v>0.2032675071405308</v>
+        <v>0.2032675071405237</v>
       </c>
       <c r="J5">
-        <v>0.4373653346811253</v>
+        <v>0.4373653346811324</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4914666598927298</v>
+        <v>0.4914666598927369</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.298816744819533</v>
+        <v>1.298816744819391</v>
       </c>
       <c r="C6">
-        <v>0.5786860191005303</v>
+        <v>0.5786860191007008</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05056786240970368</v>
+        <v>0.05056786240966105</v>
       </c>
       <c r="F6">
-        <v>1.683204599397769</v>
+        <v>1.683204599397797</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>1.332879626466607</v>
       </c>
       <c r="I6">
-        <v>0.2028006044910668</v>
+        <v>0.2028006044910562</v>
       </c>
       <c r="J6">
-        <v>0.4340348826102343</v>
+        <v>0.4340348826102556</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4877380405483294</v>
+        <v>0.4877380405483152</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.367904357985935</v>
+        <v>1.367904357985651</v>
       </c>
       <c r="C7">
-        <v>0.6098301599065792</v>
+        <v>0.6098301599063518</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05320636868522399</v>
+        <v>0.05320636868518847</v>
       </c>
       <c r="F7">
         <v>1.762861991131956</v>
@@ -620,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.375106591782995</v>
+        <v>1.375106591783009</v>
       </c>
       <c r="I7">
-        <v>0.2060708122340955</v>
+        <v>0.2060708122340991</v>
       </c>
       <c r="J7">
-        <v>0.4572119586682248</v>
+        <v>0.4572119586682035</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.513679235389958</v>
+        <v>0.5136792353899651</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.677529747319397</v>
+        <v>1.677529747319312</v>
       </c>
       <c r="C8">
-        <v>0.749887752368295</v>
+        <v>0.7498877523688066</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06495911561108514</v>
+        <v>0.06495911561108869</v>
       </c>
       <c r="F8">
         <v>2.122066564218031</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.567579108687696</v>
+        <v>1.567579108687681</v>
       </c>
       <c r="I8">
-        <v>0.2213009669593724</v>
+        <v>0.221300966959376</v>
       </c>
       <c r="J8">
-        <v>0.5611986617440365</v>
+        <v>0.5611986617440152</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6298766273653271</v>
+        <v>0.62987662736532</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.308656786141682</v>
+        <v>2.308656786141739</v>
       </c>
       <c r="C9">
-        <v>1.037687356771528</v>
+        <v>1.037687356771016</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0885650062496488</v>
+        <v>0.08856500624968078</v>
       </c>
       <c r="F9">
         <v>2.862835061159672</v>
@@ -696,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.973350154302693</v>
+        <v>1.973350154302707</v>
       </c>
       <c r="I9">
-        <v>0.2548283558224043</v>
+        <v>0.2548283558224114</v>
       </c>
       <c r="J9">
-        <v>0.7737142395000021</v>
+        <v>0.7737142395000234</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.8664105892753611</v>
+        <v>0.8664105892753682</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.794575642505947</v>
+        <v>2.79457564250589</v>
       </c>
       <c r="C10">
-        <v>1.261281344839574</v>
+        <v>1.261281344839119</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1064264747948975</v>
+        <v>0.1064264747949402</v>
       </c>
       <c r="F10">
         <v>3.438776229280052</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.29564589373075</v>
+        <v>2.295645893730764</v>
       </c>
       <c r="I10">
-        <v>0.2825719684201999</v>
+        <v>0.2825719684202213</v>
       </c>
       <c r="J10">
-        <v>0.9378141421073849</v>
+        <v>0.9378141421073707</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.048213162291908</v>
+        <v>1.048213162291923</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.022478815450654</v>
+        <v>3.02247881545054</v>
       </c>
       <c r="C11">
-        <v>1.366735110962509</v>
+        <v>1.366735110962225</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1147096288974332</v>
+        <v>0.1147096288974403</v>
       </c>
       <c r="F11">
-        <v>3.710146893630281</v>
+        <v>3.710146893630309</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.449325396395423</v>
+        <v>2.449325396395437</v>
       </c>
       <c r="I11">
-        <v>0.2961037725259033</v>
+        <v>0.2961037725259246</v>
       </c>
       <c r="J11">
-        <v>1.014918422123813</v>
+        <v>1.014918422123799</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.109964702543891</v>
+        <v>3.109964702544005</v>
       </c>
       <c r="C12">
-        <v>1.407314058291149</v>
+        <v>1.407314058290808</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1178731827326871</v>
+        <v>0.1178731827327333</v>
       </c>
       <c r="F12">
-        <v>3.814496150239222</v>
+        <v>3.814496150239194</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2.508713137394295</v>
+        <v>2.508713137394281</v>
       </c>
       <c r="I12">
-        <v>0.3013823856908289</v>
+        <v>0.3013823856907862</v>
       </c>
       <c r="J12">
-        <v>1.044539945320651</v>
+        <v>1.044539945320679</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.166055800919231</v>
+        <v>1.166055800919239</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.091066913000702</v>
+        <v>3.091066913000645</v>
       </c>
       <c r="C13">
-        <v>1.398544023500392</v>
+        <v>1.398544023499483</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1171905860661262</v>
+        <v>0.1171905860660623</v>
       </c>
       <c r="F13">
         <v>3.79194790508717</v>
@@ -848,13 +848,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2.495866783946823</v>
+        <v>2.495866783946838</v>
       </c>
       <c r="I13">
-        <v>0.3002382603583129</v>
+        <v>0.30023826035832</v>
       </c>
       <c r="J13">
-        <v>1.038140323646715</v>
+        <v>1.038140323646729</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.029651361156937</v>
+        <v>3.02965136115688</v>
       </c>
       <c r="C14">
-        <v>1.37005994036241</v>
+        <v>1.370059940362978</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1149693313679556</v>
+        <v>0.1149693313679734</v>
       </c>
       <c r="F14">
-        <v>3.718698469341803</v>
+        <v>3.718698469341774</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2.454186253128825</v>
+        <v>2.45418625312881</v>
       </c>
       <c r="I14">
-        <v>0.2965348048273881</v>
+        <v>0.2965348048273668</v>
       </c>
       <c r="J14">
         <v>1.017346463563015</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.992193138591915</v>
+        <v>2.992193138591972</v>
       </c>
       <c r="C15">
-        <v>1.352700230454786</v>
+        <v>1.352700230454445</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1136123853994455</v>
+        <v>0.1136123853994384</v>
       </c>
       <c r="F15">
         <v>3.674045443306881</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2.428816732930486</v>
+        <v>2.428816732930514</v>
       </c>
       <c r="I15">
-        <v>0.2942871999763668</v>
+        <v>0.294287199976381</v>
       </c>
       <c r="J15">
-        <v>1.004667106783941</v>
+        <v>1.004667106783927</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.122066571194964</v>
+        <v>1.122066571194942</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,25 +947,25 @@
         <v>2.779835846403387</v>
       </c>
       <c r="C16">
-        <v>1.254473812958338</v>
+        <v>1.254473812958565</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1058886761760007</v>
+        <v>0.1058886761759226</v>
       </c>
       <c r="F16">
-        <v>3.42124981796502</v>
+        <v>3.421249817965048</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2.285759270763648</v>
+        <v>2.285759270763691</v>
       </c>
       <c r="I16">
-        <v>0.2817078825434152</v>
+        <v>0.2817078825434223</v>
       </c>
       <c r="J16">
         <v>0.9328303990876066</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.042702623820325</v>
+        <v>1.042702623820311</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.651449264619373</v>
+        <v>2.651449264619316</v>
       </c>
       <c r="C17">
-        <v>1.195244759264369</v>
+        <v>1.195244759264597</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1011937061322143</v>
+        <v>0.1011937061321895</v>
       </c>
       <c r="F17">
         <v>3.268728407303797</v>
@@ -1000,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2.199925595331422</v>
+        <v>2.199925595331393</v>
       </c>
       <c r="I17">
-        <v>0.2742397380828372</v>
+        <v>0.2742397380828336</v>
       </c>
       <c r="J17">
-        <v>0.889436657223996</v>
+        <v>0.8894366572239818</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.99469327074587</v>
+        <v>0.9946932707458558</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.578236567144415</v>
+        <v>2.578236567144472</v>
       </c>
       <c r="C18">
-        <v>1.161522404147206</v>
+        <v>1.16152240414749</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.09850786558906321</v>
+        <v>0.09850786558902058</v>
       </c>
       <c r="F18">
         <v>3.181868131181886</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>2.151209410891681</v>
+        <v>2.151209410891639</v>
       </c>
       <c r="I18">
-        <v>0.2700284141157105</v>
+        <v>0.2700284141156821</v>
       </c>
       <c r="J18">
         <v>0.8647039198470878</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.967306771552245</v>
+        <v>0.9673067715522521</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.553550974677023</v>
+        <v>2.553550974676966</v>
       </c>
       <c r="C19">
-        <v>1.150160755274442</v>
+        <v>1.150160755274896</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.09760087045053112</v>
+        <v>0.0976008704505702</v>
       </c>
       <c r="F19">
         <v>3.152600709671447</v>
@@ -1076,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2.134822142686488</v>
+        <v>2.134822142686474</v>
       </c>
       <c r="I19">
-        <v>0.2686163324106445</v>
+        <v>0.2686163324106516</v>
       </c>
       <c r="J19">
-        <v>0.8563667017646139</v>
+        <v>0.8563667017646281</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.9580712271172516</v>
+        <v>0.9580712271172658</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.66504950006987</v>
+        <v>2.665049500069699</v>
       </c>
       <c r="C20">
-        <v>1.201513394684412</v>
+        <v>1.201513394684127</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1016919556425648</v>
+        <v>0.1016919556425506</v>
       </c>
       <c r="F20">
-        <v>3.284873315166152</v>
+        <v>3.284873315166209</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.208993947788841</v>
+        <v>2.208993947788883</v>
       </c>
       <c r="I20">
-        <v>0.2750258673891821</v>
+        <v>0.2750258673891963</v>
       </c>
       <c r="J20">
         <v>0.8940321055729328</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.9997799581181894</v>
+        <v>0.9997799581181681</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.047656735911403</v>
+        <v>3.047656735911573</v>
       </c>
       <c r="C21">
-        <v>1.37840792988186</v>
+        <v>1.378407929881632</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.11562100163124</v>
+        <v>0.1156210016312187</v>
       </c>
       <c r="F21">
-        <v>3.740168453661113</v>
+        <v>3.740168453661084</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.466394928098168</v>
+        <v>2.46639492809814</v>
       </c>
       <c r="I21">
-        <v>0.2976182031999102</v>
+        <v>0.2976182031999031</v>
       </c>
       <c r="J21">
         <v>1.023442002516617</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.142785249739035</v>
+        <v>1.142785249739028</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.304728610595134</v>
+        <v>3.304728610595248</v>
       </c>
       <c r="C22">
-        <v>1.497846687425692</v>
+        <v>1.497846687425977</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1248835711696117</v>
+        <v>0.1248835711696614</v>
       </c>
       <c r="F22">
         <v>4.047117825569501</v>
@@ -1193,7 +1193,7 @@
         <v>2.64167506139286</v>
       </c>
       <c r="I22">
-        <v>0.3132974219740703</v>
+        <v>0.31329742197412</v>
       </c>
       <c r="J22">
         <v>1.110530417499646</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.238761529493345</v>
+        <v>1.23876152949336</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.166808803849904</v>
+        <v>3.166808803849847</v>
       </c>
       <c r="C23">
-        <v>1.433709352820074</v>
+        <v>1.433709352819676</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1199238818661357</v>
+        <v>0.1199238818660966</v>
       </c>
       <c r="F23">
         <v>3.882345854351257</v>
@@ -1228,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.547413817129453</v>
+        <v>2.547413817129481</v>
       </c>
       <c r="I23">
         <v>0.3048367388035231</v>
       </c>
       <c r="J23">
-        <v>1.063793466460623</v>
+        <v>1.063793466460638</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.187281175191032</v>
+        <v>1.187281175191025</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.658898984105008</v>
+        <v>2.658898984104951</v>
       </c>
       <c r="C24">
-        <v>1.198678327111622</v>
+        <v>1.198678327111338</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1014666557355568</v>
+        <v>0.1014666557355604</v>
       </c>
       <c r="F24">
-        <v>3.277571646176767</v>
+        <v>3.277571646176796</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.204892194033832</v>
+        <v>2.204892194033818</v>
       </c>
       <c r="I24">
-        <v>0.2746702039756101</v>
+        <v>0.2746702039756492</v>
       </c>
       <c r="J24">
-        <v>0.8919538392052431</v>
+        <v>0.8919538392052289</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,34 +1289,34 @@
         <v>2.134628094447294</v>
       </c>
       <c r="C25">
-        <v>0.9580285747220216</v>
+        <v>0.9580285747219932</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.08210193254683773</v>
+        <v>0.08210193254683062</v>
       </c>
       <c r="F25">
-        <v>2.657628314420691</v>
+        <v>2.657628314420663</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.859883654692268</v>
+        <v>1.859883654692283</v>
       </c>
       <c r="I25">
-        <v>0.2452827921497338</v>
+        <v>0.2452827921496841</v>
       </c>
       <c r="J25">
-        <v>0.7150429297620846</v>
+        <v>0.7150429297620775</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.8012318901876156</v>
+        <v>0.8012318901876299</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_44/res_line/pl_mw.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.762793901102668</v>
+        <v>1.762793901102867</v>
       </c>
       <c r="C2">
-        <v>0.7885909592855853</v>
+        <v>0.7885909592853295</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06817536741948871</v>
+        <v>0.06817536741943897</v>
       </c>
       <c r="F2">
-        <v>2.221538664980599</v>
+        <v>2.221538664980585</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.621419314817231</v>
+        <v>1.621419314817246</v>
       </c>
       <c r="I2">
-        <v>0.2256467085931639</v>
+        <v>0.2256467085931391</v>
       </c>
       <c r="J2">
-        <v>0.58986657970636</v>
+        <v>0.5898665797064027</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.6618571672653673</v>
+        <v>0.6618571672653886</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.517134932109315</v>
+        <v>1.517134932109286</v>
       </c>
       <c r="C3">
-        <v>0.6772370834824812</v>
+        <v>0.6772370834823107</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05888538038192692</v>
+        <v>0.05888538038190561</v>
       </c>
       <c r="F3">
-        <v>1.935566270471583</v>
+        <v>1.935566270471597</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.467246747045678</v>
+        <v>1.467246747045664</v>
       </c>
       <c r="I3">
-        <v>0.2132989385185304</v>
+        <v>0.213298938518534</v>
       </c>
       <c r="J3">
-        <v>0.5073073326653983</v>
+        <v>0.5073073326654125</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.368715080721586</v>
+        <v>1.368715080721728</v>
       </c>
       <c r="C4">
-        <v>0.6101958643836269</v>
+        <v>0.6101958643838259</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05323729526381271</v>
+        <v>0.05323729526384113</v>
       </c>
       <c r="F4">
-        <v>1.76379791738033</v>
+        <v>1.763797917380344</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.375603787894093</v>
+        <v>1.375603787894107</v>
       </c>
       <c r="I4">
-        <v>0.2061094819921081</v>
+        <v>0.2061094819920974</v>
       </c>
       <c r="J4">
-        <v>0.4574839918528255</v>
+        <v>0.4574839918528184</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5139836178185959</v>
+        <v>0.5139836178185888</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.308746126066467</v>
+        <v>1.308746126066325</v>
       </c>
       <c r="C5">
-        <v>0.5831596349920574</v>
+        <v>0.5831596349922847</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05094744250099836</v>
+        <v>0.05094744250100192</v>
       </c>
       <c r="F5">
         <v>1.694640717275249</v>
@@ -547,16 +547,16 @@
         <v>1.33893091887137</v>
       </c>
       <c r="I5">
-        <v>0.2032675071405237</v>
+        <v>0.2032675071405308</v>
       </c>
       <c r="J5">
-        <v>0.4373653346811324</v>
+        <v>0.4373653346811253</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4914666598927369</v>
+        <v>0.4914666598927298</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.298816744819391</v>
+        <v>1.298816744819533</v>
       </c>
       <c r="C6">
-        <v>0.5786860191007008</v>
+        <v>0.5786860191005303</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05056786240966105</v>
+        <v>0.05056786240970368</v>
       </c>
       <c r="F6">
-        <v>1.683204599397797</v>
+        <v>1.683204599397769</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>1.332879626466607</v>
       </c>
       <c r="I6">
-        <v>0.2028006044910562</v>
+        <v>0.2028006044910668</v>
       </c>
       <c r="J6">
-        <v>0.4340348826102556</v>
+        <v>0.4340348826102343</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4877380405483152</v>
+        <v>0.4877380405483294</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.367904357985651</v>
+        <v>1.367904357985935</v>
       </c>
       <c r="C7">
-        <v>0.6098301599063518</v>
+        <v>0.6098301599065792</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05320636868518847</v>
+        <v>0.05320636868522399</v>
       </c>
       <c r="F7">
         <v>1.762861991131956</v>
@@ -620,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.375106591783009</v>
+        <v>1.375106591782995</v>
       </c>
       <c r="I7">
-        <v>0.2060708122340991</v>
+        <v>0.2060708122340955</v>
       </c>
       <c r="J7">
-        <v>0.4572119586682035</v>
+        <v>0.4572119586682248</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5136792353899651</v>
+        <v>0.513679235389958</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.677529747319312</v>
+        <v>1.677529747319397</v>
       </c>
       <c r="C8">
-        <v>0.7498877523688066</v>
+        <v>0.749887752368295</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06495911561108869</v>
+        <v>0.06495911561108514</v>
       </c>
       <c r="F8">
         <v>2.122066564218031</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.567579108687681</v>
+        <v>1.567579108687696</v>
       </c>
       <c r="I8">
-        <v>0.221300966959376</v>
+        <v>0.2213009669593724</v>
       </c>
       <c r="J8">
-        <v>0.5611986617440152</v>
+        <v>0.5611986617440365</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.62987662736532</v>
+        <v>0.6298766273653271</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.308656786141739</v>
+        <v>2.308656786141682</v>
       </c>
       <c r="C9">
-        <v>1.037687356771016</v>
+        <v>1.037687356771528</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.08856500624968078</v>
+        <v>0.0885650062496488</v>
       </c>
       <c r="F9">
         <v>2.862835061159672</v>
@@ -696,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.973350154302707</v>
+        <v>1.973350154302693</v>
       </c>
       <c r="I9">
-        <v>0.2548283558224114</v>
+        <v>0.2548283558224043</v>
       </c>
       <c r="J9">
-        <v>0.7737142395000234</v>
+        <v>0.7737142395000021</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.8664105892753682</v>
+        <v>0.8664105892753611</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.79457564250589</v>
+        <v>2.794575642505947</v>
       </c>
       <c r="C10">
-        <v>1.261281344839119</v>
+        <v>1.261281344839574</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1064264747949402</v>
+        <v>0.1064264747948975</v>
       </c>
       <c r="F10">
         <v>3.438776229280052</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.295645893730764</v>
+        <v>2.29564589373075</v>
       </c>
       <c r="I10">
-        <v>0.2825719684202213</v>
+        <v>0.2825719684201999</v>
       </c>
       <c r="J10">
-        <v>0.9378141421073707</v>
+        <v>0.9378141421073849</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.048213162291923</v>
+        <v>1.048213162291908</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.02247881545054</v>
+        <v>3.022478815450654</v>
       </c>
       <c r="C11">
-        <v>1.366735110962225</v>
+        <v>1.366735110962509</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1147096288974403</v>
+        <v>0.1147096288974332</v>
       </c>
       <c r="F11">
-        <v>3.710146893630309</v>
+        <v>3.710146893630281</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.449325396395437</v>
+        <v>2.449325396395423</v>
       </c>
       <c r="I11">
-        <v>0.2961037725259246</v>
+        <v>0.2961037725259033</v>
       </c>
       <c r="J11">
-        <v>1.014918422123799</v>
+        <v>1.014918422123813</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.109964702544005</v>
+        <v>3.109964702543891</v>
       </c>
       <c r="C12">
-        <v>1.407314058290808</v>
+        <v>1.407314058291149</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1178731827327333</v>
+        <v>0.1178731827326871</v>
       </c>
       <c r="F12">
-        <v>3.814496150239194</v>
+        <v>3.814496150239222</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2.508713137394281</v>
+        <v>2.508713137394295</v>
       </c>
       <c r="I12">
-        <v>0.3013823856907862</v>
+        <v>0.3013823856908289</v>
       </c>
       <c r="J12">
-        <v>1.044539945320679</v>
+        <v>1.044539945320651</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.166055800919239</v>
+        <v>1.166055800919231</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.091066913000645</v>
+        <v>3.091066913000702</v>
       </c>
       <c r="C13">
-        <v>1.398544023499483</v>
+        <v>1.398544023500392</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1171905860660623</v>
+        <v>0.1171905860661262</v>
       </c>
       <c r="F13">
         <v>3.79194790508717</v>
@@ -848,13 +848,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2.495866783946838</v>
+        <v>2.495866783946823</v>
       </c>
       <c r="I13">
-        <v>0.30023826035832</v>
+        <v>0.3002382603583129</v>
       </c>
       <c r="J13">
-        <v>1.038140323646729</v>
+        <v>1.038140323646715</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.02965136115688</v>
+        <v>3.029651361156937</v>
       </c>
       <c r="C14">
-        <v>1.370059940362978</v>
+        <v>1.37005994036241</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1149693313679734</v>
+        <v>0.1149693313679556</v>
       </c>
       <c r="F14">
-        <v>3.718698469341774</v>
+        <v>3.718698469341803</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2.45418625312881</v>
+        <v>2.454186253128825</v>
       </c>
       <c r="I14">
-        <v>0.2965348048273668</v>
+        <v>0.2965348048273881</v>
       </c>
       <c r="J14">
         <v>1.017346463563015</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.992193138591972</v>
+        <v>2.992193138591915</v>
       </c>
       <c r="C15">
-        <v>1.352700230454445</v>
+        <v>1.352700230454786</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1136123853994384</v>
+        <v>0.1136123853994455</v>
       </c>
       <c r="F15">
         <v>3.674045443306881</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2.428816732930514</v>
+        <v>2.428816732930486</v>
       </c>
       <c r="I15">
-        <v>0.294287199976381</v>
+        <v>0.2942871999763668</v>
       </c>
       <c r="J15">
-        <v>1.004667106783927</v>
+        <v>1.004667106783941</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.122066571194942</v>
+        <v>1.122066571194964</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,25 +947,25 @@
         <v>2.779835846403387</v>
       </c>
       <c r="C16">
-        <v>1.254473812958565</v>
+        <v>1.254473812958338</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1058886761759226</v>
+        <v>0.1058886761760007</v>
       </c>
       <c r="F16">
-        <v>3.421249817965048</v>
+        <v>3.42124981796502</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2.285759270763691</v>
+        <v>2.285759270763648</v>
       </c>
       <c r="I16">
-        <v>0.2817078825434223</v>
+        <v>0.2817078825434152</v>
       </c>
       <c r="J16">
         <v>0.9328303990876066</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.042702623820311</v>
+        <v>1.042702623820325</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.651449264619316</v>
+        <v>2.651449264619373</v>
       </c>
       <c r="C17">
-        <v>1.195244759264597</v>
+        <v>1.195244759264369</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1011937061321895</v>
+        <v>0.1011937061322143</v>
       </c>
       <c r="F17">
         <v>3.268728407303797</v>
@@ -1000,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2.199925595331393</v>
+        <v>2.199925595331422</v>
       </c>
       <c r="I17">
-        <v>0.2742397380828336</v>
+        <v>0.2742397380828372</v>
       </c>
       <c r="J17">
-        <v>0.8894366572239818</v>
+        <v>0.889436657223996</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.9946932707458558</v>
+        <v>0.99469327074587</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.578236567144472</v>
+        <v>2.578236567144415</v>
       </c>
       <c r="C18">
-        <v>1.16152240414749</v>
+        <v>1.161522404147206</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.09850786558902058</v>
+        <v>0.09850786558906321</v>
       </c>
       <c r="F18">
         <v>3.181868131181886</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>2.151209410891639</v>
+        <v>2.151209410891681</v>
       </c>
       <c r="I18">
-        <v>0.2700284141156821</v>
+        <v>0.2700284141157105</v>
       </c>
       <c r="J18">
         <v>0.8647039198470878</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.9673067715522521</v>
+        <v>0.967306771552245</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.553550974676966</v>
+        <v>2.553550974677023</v>
       </c>
       <c r="C19">
-        <v>1.150160755274896</v>
+        <v>1.150160755274442</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0976008704505702</v>
+        <v>0.09760087045053112</v>
       </c>
       <c r="F19">
         <v>3.152600709671447</v>
@@ -1076,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2.134822142686474</v>
+        <v>2.134822142686488</v>
       </c>
       <c r="I19">
-        <v>0.2686163324106516</v>
+        <v>0.2686163324106445</v>
       </c>
       <c r="J19">
-        <v>0.8563667017646281</v>
+        <v>0.8563667017646139</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.9580712271172658</v>
+        <v>0.9580712271172516</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.665049500069699</v>
+        <v>2.66504950006987</v>
       </c>
       <c r="C20">
-        <v>1.201513394684127</v>
+        <v>1.201513394684412</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1016919556425506</v>
+        <v>0.1016919556425648</v>
       </c>
       <c r="F20">
-        <v>3.284873315166209</v>
+        <v>3.284873315166152</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.208993947788883</v>
+        <v>2.208993947788841</v>
       </c>
       <c r="I20">
-        <v>0.2750258673891963</v>
+        <v>0.2750258673891821</v>
       </c>
       <c r="J20">
         <v>0.8940321055729328</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.9997799581181681</v>
+        <v>0.9997799581181894</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.047656735911573</v>
+        <v>3.047656735911403</v>
       </c>
       <c r="C21">
-        <v>1.378407929881632</v>
+        <v>1.37840792988186</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1156210016312187</v>
+        <v>0.11562100163124</v>
       </c>
       <c r="F21">
-        <v>3.740168453661084</v>
+        <v>3.740168453661113</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.46639492809814</v>
+        <v>2.466394928098168</v>
       </c>
       <c r="I21">
-        <v>0.2976182031999031</v>
+        <v>0.2976182031999102</v>
       </c>
       <c r="J21">
         <v>1.023442002516617</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.142785249739028</v>
+        <v>1.142785249739035</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.304728610595248</v>
+        <v>3.304728610595134</v>
       </c>
       <c r="C22">
-        <v>1.497846687425977</v>
+        <v>1.497846687425692</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1248835711696614</v>
+        <v>0.1248835711696117</v>
       </c>
       <c r="F22">
         <v>4.047117825569501</v>
@@ -1193,7 +1193,7 @@
         <v>2.64167506139286</v>
       </c>
       <c r="I22">
-        <v>0.31329742197412</v>
+        <v>0.3132974219740703</v>
       </c>
       <c r="J22">
         <v>1.110530417499646</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.23876152949336</v>
+        <v>1.238761529493345</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.166808803849847</v>
+        <v>3.166808803849904</v>
       </c>
       <c r="C23">
-        <v>1.433709352819676</v>
+        <v>1.433709352820074</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1199238818660966</v>
+        <v>0.1199238818661357</v>
       </c>
       <c r="F23">
         <v>3.882345854351257</v>
@@ -1228,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.547413817129481</v>
+        <v>2.547413817129453</v>
       </c>
       <c r="I23">
         <v>0.3048367388035231</v>
       </c>
       <c r="J23">
-        <v>1.063793466460638</v>
+        <v>1.063793466460623</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.187281175191025</v>
+        <v>1.187281175191032</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.658898984104951</v>
+        <v>2.658898984105008</v>
       </c>
       <c r="C24">
-        <v>1.198678327111338</v>
+        <v>1.198678327111622</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1014666557355604</v>
+        <v>0.1014666557355568</v>
       </c>
       <c r="F24">
-        <v>3.277571646176796</v>
+        <v>3.277571646176767</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.204892194033818</v>
+        <v>2.204892194033832</v>
       </c>
       <c r="I24">
-        <v>0.2746702039756492</v>
+        <v>0.2746702039756101</v>
       </c>
       <c r="J24">
-        <v>0.8919538392052289</v>
+        <v>0.8919538392052431</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,34 +1289,34 @@
         <v>2.134628094447294</v>
       </c>
       <c r="C25">
-        <v>0.9580285747219932</v>
+        <v>0.9580285747220216</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.08210193254683062</v>
+        <v>0.08210193254683773</v>
       </c>
       <c r="F25">
-        <v>2.657628314420663</v>
+        <v>2.657628314420691</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.859883654692283</v>
+        <v>1.859883654692268</v>
       </c>
       <c r="I25">
-        <v>0.2452827921496841</v>
+        <v>0.2452827921497338</v>
       </c>
       <c r="J25">
-        <v>0.7150429297620775</v>
+        <v>0.7150429297620846</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.8012318901876299</v>
+        <v>0.8012318901876156</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_44/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.762793901102867</v>
+        <v>1.744729535161696</v>
       </c>
       <c r="C2">
-        <v>0.7885909592853295</v>
+        <v>0.7791423317657689</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06817536741943897</v>
+        <v>0.06957958104720063</v>
       </c>
       <c r="F2">
-        <v>2.221538664980585</v>
+        <v>2.219672902950407</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007917297234810716</v>
       </c>
       <c r="H2">
-        <v>1.621419314817246</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2256467085931391</v>
+        <v>1.640060436664342</v>
       </c>
       <c r="J2">
-        <v>0.5898665797064027</v>
+        <v>0.2311774393236057</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5834642348303376</v>
       </c>
       <c r="L2">
-        <v>0.6618571672653886</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.6583852121981266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.517134932109286</v>
+        <v>1.501780408151177</v>
       </c>
       <c r="C3">
-        <v>0.6772370834823107</v>
+        <v>0.6693730685113621</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05888538038190561</v>
+        <v>0.06016297832595185</v>
       </c>
       <c r="F3">
-        <v>1.935566270471597</v>
+        <v>1.935197172530465</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0008005935623468911</v>
       </c>
       <c r="H3">
-        <v>1.467246747045664</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.213298938518534</v>
+        <v>1.487896612101437</v>
       </c>
       <c r="J3">
-        <v>0.5073073326654125</v>
+        <v>0.2191890789170081</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5018988087551648</v>
       </c>
       <c r="L3">
-        <v>0.5696956060913436</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.5667240840432228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.368715080721728</v>
+        <v>1.355028243968633</v>
       </c>
       <c r="C4">
-        <v>0.6101958643838259</v>
+        <v>0.6033053505107375</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05323729526384113</v>
+        <v>0.05443386843277054</v>
       </c>
       <c r="F4">
-        <v>1.763797917380344</v>
+        <v>1.764332818263952</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.000806162560283985</v>
       </c>
       <c r="H4">
-        <v>1.375603787894107</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2061094819920974</v>
+        <v>1.397476742277462</v>
       </c>
       <c r="J4">
-        <v>0.4574839918528184</v>
+        <v>0.2122176816615138</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4526868330830425</v>
       </c>
       <c r="L4">
-        <v>0.5139836178185888</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.5113158741681971</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.308746126066325</v>
+        <v>1.295741260161435</v>
       </c>
       <c r="C5">
-        <v>0.5831596349922847</v>
+        <v>0.5766668307468876</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05094744250100192</v>
+        <v>0.05211015855641321</v>
       </c>
       <c r="F5">
-        <v>1.694640717275249</v>
+        <v>1.69554140661171</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008084658055504261</v>
       </c>
       <c r="H5">
-        <v>1.33893091887137</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2032675071405308</v>
+        <v>1.36130100633315</v>
       </c>
       <c r="J5">
-        <v>0.4373653346811253</v>
+        <v>0.2094641530168921</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4328181279711529</v>
       </c>
       <c r="L5">
-        <v>0.4914666598927298</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.488922175607641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.298816744819533</v>
+        <v>1.285925301120557</v>
       </c>
       <c r="C6">
-        <v>0.5786860191005303</v>
+        <v>0.5722593379484238</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05056786240970368</v>
+        <v>0.05172490546011232</v>
       </c>
       <c r="F6">
-        <v>1.683204599397769</v>
+        <v>1.684165902044114</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008088503565171416</v>
       </c>
       <c r="H6">
-        <v>1.332879626466607</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2028006044910668</v>
+        <v>1.355332220060873</v>
       </c>
       <c r="J6">
-        <v>0.4340348826102343</v>
+        <v>0.209011918346107</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4295292436927909</v>
       </c>
       <c r="L6">
-        <v>0.4877380405483294</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.4852140004486571</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.367904357985935</v>
+        <v>1.354226707173581</v>
       </c>
       <c r="C7">
-        <v>0.6098301599065792</v>
+        <v>0.6029450045690226</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05320636868522399</v>
+        <v>0.05440248865958708</v>
       </c>
       <c r="F7">
-        <v>1.762861991131956</v>
+        <v>1.76340183425225</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008061934830622548</v>
       </c>
       <c r="H7">
-        <v>1.375106591782995</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2060708122340955</v>
+        <v>1.396986254271738</v>
       </c>
       <c r="J7">
-        <v>0.4572119586682248</v>
+        <v>0.2121802060971199</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4524181668874547</v>
       </c>
       <c r="L7">
-        <v>0.513679235389958</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.5110131557923623</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.677529747319397</v>
+        <v>1.660399845308802</v>
       </c>
       <c r="C8">
-        <v>0.749887752368295</v>
+        <v>0.7409859406382964</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06495911561108514</v>
+        <v>0.06632034518219143</v>
       </c>
       <c r="F8">
-        <v>2.122066564218031</v>
+        <v>2.120720703640487</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007947609715885407</v>
       </c>
       <c r="H8">
-        <v>1.567579108687696</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2213009669593724</v>
+        <v>1.586915813100489</v>
       </c>
       <c r="J8">
-        <v>0.5611986617440365</v>
+        <v>0.2269563221629696</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.555139083830575</v>
       </c>
       <c r="L8">
-        <v>0.6298766273653271</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.6265781680732587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.308656786141682</v>
+        <v>2.284712990129776</v>
       </c>
       <c r="C9">
-        <v>1.037687356771528</v>
+        <v>1.024789733122304</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0885650062496488</v>
+        <v>0.09022458998374461</v>
       </c>
       <c r="F9">
-        <v>2.862835061159672</v>
+        <v>2.857611273399073</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007732450509542143</v>
       </c>
       <c r="H9">
-        <v>1.973350154302693</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2548283558224043</v>
+        <v>1.987550388976999</v>
       </c>
       <c r="J9">
-        <v>0.7737142395000021</v>
+        <v>0.2595597631663544</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.7651539273158221</v>
       </c>
       <c r="L9">
-        <v>0.8664105892753611</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0.8618259795547161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.794575642505947</v>
+        <v>2.765474291007251</v>
       </c>
       <c r="C10">
-        <v>1.261281344839574</v>
+        <v>1.245347052749935</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1064264747948975</v>
+        <v>0.1082906233464058</v>
       </c>
       <c r="F10">
-        <v>3.438776229280052</v>
+        <v>3.430490828651841</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007578284740685402</v>
       </c>
       <c r="H10">
-        <v>2.29564589373075</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2825719684201999</v>
+        <v>2.305868085840743</v>
       </c>
       <c r="J10">
-        <v>0.9378141421073849</v>
+        <v>0.2865828266946551</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.9273589608659591</v>
       </c>
       <c r="L10">
-        <v>1.048213162291908</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.04262448342385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.022478815450654</v>
+        <v>2.990962931729882</v>
       </c>
       <c r="C11">
-        <v>1.366735110962509</v>
+        <v>1.349375961083297</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1147096288974332</v>
+        <v>0.1166638486720828</v>
       </c>
       <c r="F11">
-        <v>3.710146893630281</v>
+        <v>3.700393325382663</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007508583111257572</v>
       </c>
       <c r="H11">
-        <v>2.449325396395423</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2961037725259033</v>
+        <v>2.457661737531197</v>
       </c>
       <c r="J11">
-        <v>1.014918422123813</v>
+        <v>0.2997717861551621</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.003575587538265</v>
       </c>
       <c r="L11">
-        <v>1.133380426517881</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1.127313194685136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.109964702543891</v>
+        <v>3.077520955616535</v>
       </c>
       <c r="C12">
-        <v>1.407314058291149</v>
+        <v>1.389406847960572</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1178731827326871</v>
+        <v>0.1198610957805393</v>
       </c>
       <c r="F12">
-        <v>3.814496150239222</v>
+        <v>3.804172700536157</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007482209922128304</v>
       </c>
       <c r="H12">
-        <v>2.508713137394295</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3013823856908289</v>
+        <v>2.516321077242225</v>
       </c>
       <c r="J12">
-        <v>1.044539945320651</v>
+        <v>0.3049177807468197</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.032855909680606</v>
       </c>
       <c r="L12">
-        <v>1.166055800919231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.159803269955461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.091066913000702</v>
+        <v>3.058823667301567</v>
       </c>
       <c r="C13">
-        <v>1.398544023500392</v>
+        <v>1.380755266604638</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1171905860661262</v>
+        <v>0.1191712608792734</v>
       </c>
       <c r="F13">
-        <v>3.79194790508717</v>
+        <v>3.78174786451379</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007487889622263889</v>
       </c>
       <c r="H13">
-        <v>2.495866783946823</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3002382603583129</v>
+        <v>2.503632292749117</v>
       </c>
       <c r="J13">
-        <v>1.038140323646715</v>
+        <v>0.3038023526504858</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.02653002208281</v>
       </c>
       <c r="L13">
-        <v>1.158998472173181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1.15278604753604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.029651361156937</v>
+        <v>2.998059436786036</v>
       </c>
       <c r="C14">
-        <v>1.37005994036241</v>
+        <v>1.352655886079617</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1149693313679556</v>
+        <v>0.116926331337261</v>
       </c>
       <c r="F14">
-        <v>3.718698469341803</v>
+        <v>3.708898315462221</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007506413198532273</v>
       </c>
       <c r="H14">
-        <v>2.454186253128825</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2965348048273881</v>
+        <v>2.462462975628057</v>
       </c>
       <c r="J14">
-        <v>1.017346463563015</v>
+        <v>0.3001919678136531</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.005975668596562</v>
       </c>
       <c r="L14">
-        <v>1.136059705614166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1.129977317072829</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.992193138591915</v>
+        <v>2.960998281869252</v>
       </c>
       <c r="C15">
-        <v>1.352700230454786</v>
+        <v>1.335530636309898</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1136123853994455</v>
+        <v>0.1155548302633598</v>
       </c>
       <c r="F15">
-        <v>3.674045443306881</v>
+        <v>3.664488316832717</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007517760896846859</v>
       </c>
       <c r="H15">
-        <v>2.428816732930486</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2942871999763668</v>
+        <v>2.437404620453336</v>
       </c>
       <c r="J15">
-        <v>1.004667106783941</v>
+        <v>0.2980009873005969</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.9934423110927355</v>
       </c>
       <c r="L15">
-        <v>1.122066571194964</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1.116063270375797</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.779835846403387</v>
+        <v>2.750890615415756</v>
       </c>
       <c r="C16">
-        <v>1.254473812958338</v>
+        <v>1.238631582195751</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1058886761760007</v>
+        <v>0.1077468795284311</v>
       </c>
       <c r="F16">
-        <v>3.42124981796502</v>
+        <v>3.413058599353263</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007582845220652565</v>
       </c>
       <c r="H16">
-        <v>2.285759270763648</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2817078825434152</v>
+        <v>2.296102905743112</v>
       </c>
       <c r="J16">
-        <v>0.9328303990876066</v>
+        <v>0.2857407928136269</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.9224326003310637</v>
       </c>
       <c r="L16">
-        <v>1.042702623820325</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.03714470444811</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.651449264619373</v>
+        <v>2.62386419644173</v>
       </c>
       <c r="C17">
-        <v>1.195244759264369</v>
+        <v>1.180204229922367</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1011937061322143</v>
+        <v>0.1029994756773043</v>
       </c>
       <c r="F17">
-        <v>3.268728407303797</v>
+        <v>3.261353815892562</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007622855314888682</v>
       </c>
       <c r="H17">
-        <v>2.199925595331422</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2742397380828372</v>
+        <v>2.211324646716619</v>
       </c>
       <c r="J17">
-        <v>0.889436657223996</v>
+        <v>0.2784641551880505</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.8795387266208223</v>
       </c>
       <c r="L17">
-        <v>0.99469327074587</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0.9894023825825471</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.578236567144415</v>
+        <v>2.551427657997294</v>
       </c>
       <c r="C18">
-        <v>1.161522404147206</v>
+        <v>1.146939059758608</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.09850786558906321</v>
+        <v>0.1002831946328264</v>
       </c>
       <c r="F18">
-        <v>3.181868131181886</v>
+        <v>3.174956359620808</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007645911193596699</v>
       </c>
       <c r="H18">
-        <v>2.151209410891681</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2700284141157105</v>
+        <v>2.163208568238915</v>
       </c>
       <c r="J18">
-        <v>0.8647039198470878</v>
+        <v>0.2743616069684656</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.8550911811187518</v>
       </c>
       <c r="L18">
-        <v>0.967306771552245</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0.9621674881941686</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.553550974677023</v>
+        <v>2.527003900811962</v>
       </c>
       <c r="C19">
-        <v>1.150160755274442</v>
+        <v>1.135731591747458</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.09760087045053112</v>
+        <v>0.09936584398594661</v>
       </c>
       <c r="F19">
-        <v>3.152600709671447</v>
+        <v>3.145844542545547</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007653726063854525</v>
       </c>
       <c r="H19">
-        <v>2.134822142686488</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2686163324106445</v>
+        <v>2.147023383860997</v>
       </c>
       <c r="J19">
-        <v>0.8563667017646139</v>
+        <v>0.2729861359574883</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.8468501632819567</v>
       </c>
       <c r="L19">
-        <v>0.9580712271172516</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0.9529829594009342</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.66504950006987</v>
+        <v>2.637320303340289</v>
       </c>
       <c r="C20">
-        <v>1.201513394684412</v>
+        <v>1.186387944704336</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1016919556425648</v>
+        <v>0.1035033359309523</v>
       </c>
       <c r="F20">
-        <v>3.284873315166152</v>
+        <v>3.277412524979781</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007618591982241352</v>
       </c>
       <c r="H20">
-        <v>2.208993947788841</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2750258673891821</v>
+        <v>2.220281388639336</v>
       </c>
       <c r="J20">
-        <v>0.8940321055729328</v>
+        <v>0.2792300445928042</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.8840812122448796</v>
       </c>
       <c r="L20">
-        <v>0.9997799581181894</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0.9944608556429273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.047656735911403</v>
+        <v>3.015873903351689</v>
       </c>
       <c r="C21">
-        <v>1.37840792988186</v>
+        <v>1.360891129994059</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.11562100163124</v>
+        <v>0.1175849666161994</v>
       </c>
       <c r="F21">
-        <v>3.740168453661113</v>
+        <v>3.730251248820764</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007500972148743524</v>
       </c>
       <c r="H21">
-        <v>2.466394928098168</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2976182031999102</v>
+        <v>2.474521911785857</v>
       </c>
       <c r="J21">
-        <v>1.023442002516617</v>
+        <v>0.3012481104243676</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.012001008539826</v>
       </c>
       <c r="L21">
-        <v>1.142785249739035</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1.136664785792341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.304728610595134</v>
+        <v>3.270215294315676</v>
       </c>
       <c r="C22">
-        <v>1.497846687425692</v>
+        <v>1.478716064720516</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1248835711696117</v>
+        <v>0.1269448482213278</v>
       </c>
       <c r="F22">
-        <v>4.047117825569501</v>
+        <v>4.035512157689141</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007424201636801784</v>
       </c>
       <c r="H22">
-        <v>2.64167506139286</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3132974219740703</v>
+        <v>2.64765126599201</v>
       </c>
       <c r="J22">
-        <v>1.110530417499646</v>
+        <v>0.3165353549415926</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.098085167102369</v>
       </c>
       <c r="L22">
-        <v>1.238761529493345</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1.232092939847774</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.166808803849904</v>
+        <v>3.133761665899215</v>
       </c>
       <c r="C23">
-        <v>1.433709352820074</v>
+        <v>1.415445590012041</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1199238818661357</v>
+        <v>0.121933437450636</v>
       </c>
       <c r="F23">
-        <v>3.882345854351257</v>
+        <v>3.871650143682785</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007465181263961554</v>
       </c>
       <c r="H23">
-        <v>2.547413817129453</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3048367388035231</v>
+        <v>2.554547011357016</v>
       </c>
       <c r="J23">
-        <v>1.063793466460623</v>
+        <v>0.3082856413753348</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.051887520650453</v>
       </c>
       <c r="L23">
-        <v>1.187281175191032</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1.180907731876182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.658898984105008</v>
+        <v>2.63123496574309</v>
       </c>
       <c r="C24">
-        <v>1.198678327111622</v>
+        <v>1.183591281188342</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1014666557355568</v>
+        <v>0.1032755003288024</v>
       </c>
       <c r="F24">
-        <v>3.277571646176767</v>
+        <v>3.27014984700935</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007620519264716701</v>
       </c>
       <c r="H24">
-        <v>2.204892194033832</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2746702039756101</v>
+        <v>2.216230114532721</v>
       </c>
       <c r="J24">
-        <v>0.8919538392052431</v>
+        <v>0.2788835357176076</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.8820268970436871</v>
       </c>
       <c r="L24">
-        <v>0.9974796031093831</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0.9921732622208026</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.134628094447294</v>
+        <v>2.112543904961569</v>
       </c>
       <c r="C25">
-        <v>0.9580285747220216</v>
+        <v>0.9462233749738402</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.08210193254683773</v>
+        <v>0.08368343686054303</v>
       </c>
       <c r="F25">
-        <v>2.657628314420691</v>
+        <v>2.653482407570635</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007789842769339037</v>
       </c>
       <c r="H25">
-        <v>1.859883654692268</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2452827921497338</v>
+        <v>1.875499995563899</v>
       </c>
       <c r="J25">
-        <v>0.7150429297620846</v>
+        <v>0.2502697248811465</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.7071654117277149</v>
       </c>
       <c r="L25">
-        <v>0.8012318901876156</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0.7970030127826817</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_44/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.744729535161696</v>
+        <v>1.872951804687574</v>
       </c>
       <c r="C2">
-        <v>0.7791423317657689</v>
+        <v>0.2292019354317745</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06957958104720063</v>
+        <v>0.03383338480063802</v>
       </c>
       <c r="F2">
-        <v>2.219672902950407</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007917297234810716</v>
+        <v>0.0008376860209378112</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.640060436664342</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2311774393236057</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5834642348303376</v>
+        <v>0.4165733870396693</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1466521289935585</v>
       </c>
       <c r="M2">
-        <v>0.6583852121981266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.336895752682004</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>2.867660497335962</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.501780408151177</v>
+        <v>1.635672824363667</v>
       </c>
       <c r="C3">
-        <v>0.6693730685113621</v>
+        <v>0.2012175292080087</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06016297832595185</v>
+        <v>0.0334760308976696</v>
       </c>
       <c r="F3">
-        <v>1.935197172530465</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0008005935623468911</v>
+        <v>0.0008461041389196882</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.487896612101437</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2191890789170081</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5018988087551648</v>
+        <v>0.3602957626265635</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1332650932235708</v>
       </c>
       <c r="M3">
-        <v>0.5667240840432228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.2966160569074248</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>2.633501910452679</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.355028243968633</v>
+        <v>1.492935937750218</v>
       </c>
       <c r="C4">
-        <v>0.6033053505107375</v>
+        <v>0.1842260428555988</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05443386843277054</v>
+        <v>0.03327458219501267</v>
       </c>
       <c r="F4">
-        <v>1.764332818263952</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.000806162560283985</v>
+        <v>0.0008514044406433091</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.397476742277462</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2122176816615138</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4526868330830425</v>
+        <v>0.3263692677406524</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1252731841830581</v>
       </c>
       <c r="M4">
-        <v>0.5113158741681971</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.2724244835498304</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>2.493898676072178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.295741260161435</v>
+        <v>1.435427057842816</v>
       </c>
       <c r="C5">
-        <v>0.5766668307468876</v>
+        <v>0.1773392184995259</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05211015855641321</v>
+        <v>0.03319669086050592</v>
       </c>
       <c r="F5">
-        <v>1.69554140661171</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008084658055504261</v>
+        <v>0.0008535990709519746</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.36130100633315</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2094641530168921</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4328181279711529</v>
+        <v>0.3126816449463234</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1220686165864677</v>
       </c>
       <c r="M5">
-        <v>0.488922175607641</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.2626875232243862</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>2.437945071375864</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.285925301120557</v>
+        <v>1.425915115421418</v>
       </c>
       <c r="C6">
-        <v>0.5722593379484238</v>
+        <v>0.1761976277148847</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05172490546011232</v>
+        <v>0.03318400201086913</v>
       </c>
       <c r="F6">
-        <v>1.684165902044114</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.0008088503565171416</v>
+        <v>0.0008539656298105491</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.355332220060873</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.209011918346107</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4295292436927909</v>
+        <v>0.3104165826673935</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1215395125716228</v>
       </c>
       <c r="M6">
-        <v>0.4852140004486571</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.2610776318408128</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>2.428707404425111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.354226707173581</v>
+        <v>1.492157797689032</v>
       </c>
       <c r="C7">
-        <v>0.6029450045690226</v>
+        <v>0.1841330269613053</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05440248865958708</v>
+        <v>0.03327351511653731</v>
       </c>
       <c r="F7">
-        <v>1.76340183425225</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0.0008061934830622548</v>
+        <v>0.0008514338956057036</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.396986254271738</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2121802060971199</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4524181668874547</v>
+        <v>0.3261841396574567</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1252297613228706</v>
       </c>
       <c r="M7">
-        <v>0.5110131557923623</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.2722926947195745</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>2.493140419899817</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.660399845308802</v>
+        <v>1.790471445469336</v>
       </c>
       <c r="C8">
-        <v>0.7409859406382964</v>
+        <v>0.2195064985878616</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06632034518219143</v>
+        <v>0.03370623966979114</v>
       </c>
       <c r="F8">
-        <v>2.120720703640487</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0007947609715885407</v>
+        <v>0.000840562312690964</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.586915813100489</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2269563221629696</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.555139083830575</v>
+        <v>0.3970257076332899</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.141985810982284</v>
       </c>
       <c r="M8">
-        <v>0.6265781680732587</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.3228859997344458</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>2.785985967883761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.284712990129776</v>
+        <v>2.403173738971816</v>
       </c>
       <c r="C9">
-        <v>1.024789733122304</v>
+        <v>0.2909315708838989</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.09022458998374461</v>
+        <v>0.03471337112201223</v>
       </c>
       <c r="F9">
-        <v>2.857611273399073</v>
+        <v>1.895061171842826</v>
       </c>
       <c r="G9">
-        <v>0.0007732450509542143</v>
+        <v>0.0008202054935611398</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.987550388976999</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2595597631663544</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7651539273158221</v>
+        <v>0.5419502944681156</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1769055318801804</v>
       </c>
       <c r="M9">
-        <v>0.8618259795547161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.4271176168272532</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>3.398980691981834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.765474291007251</v>
+        <v>2.87693504302041</v>
       </c>
       <c r="C10">
-        <v>1.245347052749935</v>
+        <v>0.3455214864764571</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1082906233464058</v>
+        <v>0.03557522049147455</v>
       </c>
       <c r="F10">
-        <v>3.430490828651841</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.0007578284740685402</v>
+        <v>0.0008057094400621102</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.305868085840743</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2865828266946551</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9273589608659591</v>
+        <v>0.6536918138488659</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2042135711512998</v>
       </c>
       <c r="M10">
-        <v>1.04262448342385</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.5079021559573818</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>3.881725049627022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.990962931729882</v>
+        <v>3.099325358459964</v>
       </c>
       <c r="C11">
-        <v>1.349375961083297</v>
+        <v>0.3710405317845584</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1166638486720828</v>
+        <v>0.03600038496181313</v>
       </c>
       <c r="F11">
-        <v>3.700393325382663</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007508583111257572</v>
+        <v>0.0007991823703017431</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.457661737531197</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2997717861551621</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.003575587538265</v>
+        <v>0.7060856404197153</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2170970914214081</v>
       </c>
       <c r="M11">
-        <v>1.127313194685136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.545862239599586</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>4.110620011529846</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.077520955616535</v>
+        <v>3.184694672021294</v>
       </c>
       <c r="C12">
-        <v>1.389406847960572</v>
+        <v>0.3808246014317831</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1198610957805393</v>
+        <v>0.03616679168333281</v>
       </c>
       <c r="F12">
-        <v>3.804172700536157</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007482209922128304</v>
+        <v>0.0007967173240877348</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.516321077242225</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3049177807468197</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.032855909680606</v>
+        <v>0.7261906660646318</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2220517424768786</v>
       </c>
       <c r="M12">
-        <v>1.159803269955461</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.5604393024904795</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>4.19884899016796</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.058823667301567</v>
+        <v>3.166254602878951</v>
       </c>
       <c r="C13">
-        <v>1.380755266604638</v>
+        <v>0.3787116809388067</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1191712608792734</v>
+        <v>0.03613070127396778</v>
       </c>
       <c r="F13">
-        <v>3.78174786451379</v>
+        <v>2.504295469236084</v>
       </c>
       <c r="G13">
-        <v>0.0007487889622263889</v>
+        <v>0.0007972479745516486</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.503632292749117</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3038023526504858</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.02653002208281</v>
+        <v>0.7218482236398955</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2209811249550171</v>
       </c>
       <c r="M13">
-        <v>1.15278604753604</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.5572903778200953</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>4.179774567640493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.998059436786036</v>
+        <v>3.106324562601856</v>
       </c>
       <c r="C14">
-        <v>1.352655886079617</v>
+        <v>0.3718429197031412</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.116926331337261</v>
+        <v>0.0360139629584646</v>
       </c>
       <c r="F14">
-        <v>3.708898315462221</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007506413198532273</v>
+        <v>0.0007989794557590776</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.462462975628057</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3001919678136531</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.005975668596562</v>
+        <v>0.7077341407910254</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2175031317853637</v>
       </c>
       <c r="M14">
-        <v>1.129977317072829</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.54705727126629</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>4.117846235618941</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.960998281869252</v>
+        <v>3.06977141266708</v>
       </c>
       <c r="C15">
-        <v>1.335530636309898</v>
+        <v>0.3676520115184303</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1155548302633598</v>
+        <v>0.03594318218446091</v>
       </c>
       <c r="F15">
-        <v>3.664488316832717</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0007517760896846859</v>
+        <v>0.0008000408017312712</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.437404620453336</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2980009873005969</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9934423110927355</v>
+        <v>0.6991245997285063</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2153829582303217</v>
       </c>
       <c r="M15">
-        <v>1.116063270375797</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.5408164610766875</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>4.080122255685694</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.750890615415756</v>
+        <v>2.862553363564189</v>
       </c>
       <c r="C16">
-        <v>1.238631582195751</v>
+        <v>0.3438693618143702</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1077468795284311</v>
+        <v>0.03554815425508462</v>
       </c>
       <c r="F16">
-        <v>3.413058599353263</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0007582845220652565</v>
+        <v>0.000806137100185098</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.296102905743112</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2857407928136269</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9224326003310637</v>
+        <v>0.6503024838210365</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2033816761819054</v>
       </c>
       <c r="M16">
-        <v>1.03714470444811</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.5054480739443719</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>3.866970976625538</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.62386419644173</v>
+        <v>2.737304022495664</v>
       </c>
       <c r="C17">
-        <v>1.180204229922367</v>
+        <v>0.3294697778005968</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1029994756773043</v>
+        <v>0.03531472742702668</v>
       </c>
       <c r="F17">
-        <v>3.261353815892562</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007622855314888682</v>
+        <v>0.0008098921520045075</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.211324646716619</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2784641551880505</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8795387266208223</v>
+        <v>0.6207785782731889</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1961438342426618</v>
       </c>
       <c r="M17">
-        <v>0.9894023825825471</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.4840798150235415</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>3.738734103057936</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.551427657997294</v>
+        <v>2.665899739319229</v>
       </c>
       <c r="C18">
-        <v>1.146939059758608</v>
+        <v>0.3212505851638383</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1002831946328264</v>
+        <v>0.03518353878147895</v>
       </c>
       <c r="F18">
-        <v>3.174956359620808</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007645911193596699</v>
+        <v>0.0008120584936642788</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.163208568238915</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2743616069684656</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8550911811187518</v>
+        <v>0.6039415454425097</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1920235607672964</v>
       </c>
       <c r="M18">
-        <v>0.9621674881941686</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.4719014250020663</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>3.66583585449419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.527003900811962</v>
+        <v>2.641827960713954</v>
       </c>
       <c r="C19">
-        <v>1.135731591747458</v>
+        <v>0.3184779212407562</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.09936584398594661</v>
+        <v>0.03513963002971732</v>
       </c>
       <c r="F19">
-        <v>3.145844542545547</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>0.0007653726063854525</v>
+        <v>0.0008127931892057582</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.147023383860997</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2729861359574883</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8468501632819567</v>
+        <v>0.5982644727723638</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1906355732561167</v>
       </c>
       <c r="M19">
-        <v>0.9529829594009342</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.4677964763735289</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>3.641295388046728</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.637320303340289</v>
+        <v>2.750570087363485</v>
       </c>
       <c r="C20">
-        <v>1.186387944704336</v>
+        <v>0.3309959618921141</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1035033359309523</v>
+        <v>0.03533925375617919</v>
       </c>
       <c r="F20">
-        <v>3.277412524979781</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007618591982241352</v>
+        <v>0.0008094917649147518</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.220281388639336</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2792300445928042</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8840812122448796</v>
+        <v>0.623906237435861</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1969098251904455</v>
       </c>
       <c r="M20">
-        <v>0.9944608556429273</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.4863427109373362</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>3.752294637705575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.015873903351689</v>
+        <v>3.123894684568938</v>
       </c>
       <c r="C21">
-        <v>1.360891129994059</v>
+        <v>0.3738569785165851</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1175849666161994</v>
+        <v>0.03604809949194543</v>
       </c>
       <c r="F21">
-        <v>3.730251248820764</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007500972148743524</v>
+        <v>0.0007984707248079458</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.474521911785857</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3012481104243676</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.012001008539826</v>
+        <v>0.7118722610996713</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2185225584684929</v>
       </c>
       <c r="M21">
-        <v>1.136664785792341</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.5500572451739316</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>4.135992125983933</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.270215294315676</v>
+        <v>3.374709994228112</v>
       </c>
       <c r="C22">
-        <v>1.478716064720516</v>
+        <v>0.4025844676787926</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1269448482213278</v>
+        <v>0.03654325386985047</v>
       </c>
       <c r="F22">
-        <v>4.035512157689141</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0007424201636801784</v>
+        <v>0.0007913046650746776</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.64765126599201</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3165353549415926</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.098085167102369</v>
+        <v>0.7709282780198166</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2330957981057225</v>
       </c>
       <c r="M22">
-        <v>1.232092939847774</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.5928941289473642</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>4.395924824016305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.133761665899215</v>
+        <v>3.240159452760906</v>
       </c>
       <c r="C23">
-        <v>1.415445590012041</v>
+        <v>0.3871784936522715</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.121933437450636</v>
+        <v>0.03627582439415811</v>
       </c>
       <c r="F23">
-        <v>3.871650143682785</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0.0007465181263961554</v>
+        <v>0.0007951270744083958</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.554547011357016</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3082856413753348</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.051887520650453</v>
+        <v>0.739251055777018</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.225273259589386</v>
       </c>
       <c r="M23">
-        <v>1.180907731876182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.5699114940563845</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>4.256276543610483</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.63123496574309</v>
+        <v>2.744570632793057</v>
       </c>
       <c r="C24">
-        <v>1.183591281188342</v>
+        <v>0.3303057909112823</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1032755003288024</v>
+        <v>0.03532815606990169</v>
       </c>
       <c r="F24">
-        <v>3.27014984700935</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0007620519264716701</v>
+        <v>0.0008096727563329912</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.216230114532721</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2788835357176076</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8820268970436871</v>
+        <v>0.6224918000335791</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1965633941320988</v>
       </c>
       <c r="M24">
-        <v>0.9921732622208026</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.4853193260391464</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>3.746161360476208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.112543904961569</v>
+        <v>2.233808472547651</v>
       </c>
       <c r="C25">
-        <v>0.9462233749738402</v>
+        <v>0.2713066600056919</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.08368343686054303</v>
+        <v>0.03442152195115877</v>
       </c>
       <c r="F25">
-        <v>2.653482407570635</v>
+        <v>1.757113814925077</v>
       </c>
       <c r="G25">
-        <v>0.0007789842769339037</v>
+        <v>0.0008256217756903439</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.875499995563899</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2502697248811465</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7071654117277149</v>
+        <v>0.5019472119002657</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1671999088966913</v>
       </c>
       <c r="M25">
-        <v>0.7970030127826817</v>
+        <v>0.3982725176471362</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>3.228156741583319</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_44/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.872951804687574</v>
+        <v>1.063943241153567</v>
       </c>
       <c r="C2">
-        <v>0.2292019354317745</v>
+        <v>0.1894474809784725</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03383338480063802</v>
+        <v>1.37824828199345</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0008376860209378112</v>
+        <v>0.0007991806707657021</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1782804458982827</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4165733870396693</v>
+        <v>1.186632915398064</v>
       </c>
       <c r="L2">
-        <v>0.1466521289935585</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.336895752682004</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.867660497335962</v>
+        <v>0.9058610626776726</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.635672824363667</v>
+        <v>0.9271645936961477</v>
       </c>
       <c r="C3">
-        <v>0.2012175292080087</v>
+        <v>0.1668326564498983</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0334760308976696</v>
+        <v>1.184804477776822</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0008461041389196882</v>
+        <v>0.0008030801470327927</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.1899277572166991</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3602957626265635</v>
+        <v>1.035802483956388</v>
       </c>
       <c r="L3">
-        <v>0.1332650932235708</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2966160569074248</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.633501910452679</v>
+        <v>0.9218148627610105</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.492935937750218</v>
+        <v>0.8432825215004414</v>
       </c>
       <c r="C4">
-        <v>0.1842260428555988</v>
+        <v>0.1529802961986348</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03327458219501267</v>
+        <v>1.068022071161238</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008514044406433091</v>
+        <v>0.0008055399910253475</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.1978341135723589</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3263692677406524</v>
+        <v>0.9433174301705947</v>
       </c>
       <c r="L4">
-        <v>0.1252731841830581</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2724244835498304</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.493898676072178</v>
+        <v>0.9353926542051596</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.435427057842816</v>
+        <v>0.8091117247776083</v>
       </c>
       <c r="C5">
-        <v>0.1773392184995259</v>
+        <v>0.1473403876173762</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03319669086050592</v>
+        <v>1.020858027003911</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008535990709519746</v>
+        <v>0.0008065594043981623</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2012370017139293</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3126816449463234</v>
+        <v>0.9056443749692562</v>
       </c>
       <c r="L5">
-        <v>0.1220686165864677</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2626875232243862</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.437945071375864</v>
+        <v>0.941823903609162</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.425915115421418</v>
+        <v>0.8034380294629386</v>
       </c>
       <c r="C6">
-        <v>0.1761976277148847</v>
+        <v>0.1464040974589125</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03318400201086913</v>
+        <v>1.013050094644555</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0008539656298105491</v>
+        <v>0.0008067297191634065</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2018127311401727</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3104165826673935</v>
+        <v>0.8993892695506247</v>
       </c>
       <c r="L6">
-        <v>0.1215395125716228</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2610776318408128</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.428707404425111</v>
+        <v>0.9429445715113189</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.492157797689032</v>
+        <v>0.8428216513815698</v>
       </c>
       <c r="C7">
-        <v>0.1841330269613053</v>
+        <v>0.1529042182075813</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03327351511653731</v>
+        <v>1.067384371928469</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0008514338956057036</v>
+        <v>0.0008055536696160714</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.1978792846114175</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3261841396574567</v>
+        <v>0.9428093165430482</v>
       </c>
       <c r="L7">
-        <v>0.1252297613228706</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2722926947195745</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.493140419899817</v>
+        <v>0.9354758190521153</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.790471445469336</v>
+        <v>1.016752643196924</v>
       </c>
       <c r="C8">
-        <v>0.2195064985878616</v>
+        <v>0.1816409080917509</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03370623966979114</v>
+        <v>1.311087908246975</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.000840562312690964</v>
+        <v>0.0008005119314804585</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.1821342908918346</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3970257076332899</v>
+        <v>1.134590387480728</v>
       </c>
       <c r="L8">
-        <v>0.141985810982284</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3228859997344458</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.785985967883761</v>
+        <v>0.910544130846219</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.403173738971816</v>
+        <v>1.359303710063188</v>
       </c>
       <c r="C9">
-        <v>0.2909315708838989</v>
+        <v>0.2384233969984422</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03471337112201223</v>
+        <v>1.808558085701847</v>
       </c>
       <c r="F9">
-        <v>1.895061171842826</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0008202054935611398</v>
+        <v>0.00079111960073606</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.1576729508029366</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5419502944681156</v>
+        <v>1.512479041402258</v>
       </c>
       <c r="L9">
-        <v>0.1769055318801804</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4271176168272532</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.398980691981834</v>
+        <v>0.8942194344836167</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.87693504302041</v>
+        <v>1.612920437006295</v>
       </c>
       <c r="C10">
-        <v>0.3455214864764571</v>
+        <v>0.2806623566452657</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03557522049147455</v>
+        <v>2.191818475653079</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.0008057094400621102</v>
+        <v>0.0007844816326871284</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.1442478378782184</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6536918138488659</v>
+        <v>1.792473618205207</v>
       </c>
       <c r="L10">
-        <v>0.2042135711512998</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5079021559573818</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.881725049627022</v>
+        <v>0.9059273732816422</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.099325358459964</v>
+        <v>1.728979072006268</v>
       </c>
       <c r="C11">
-        <v>0.3710405317845584</v>
+        <v>0.3000563184031364</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03600038496181313</v>
+        <v>2.371523800185898</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007991823703017431</v>
+        <v>0.000781509296334601</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.1392832761477898</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7060856404197153</v>
+        <v>1.920676093891473</v>
       </c>
       <c r="L11">
-        <v>0.2170970914214081</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.545862239599586</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.110620011529846</v>
+        <v>0.9173465399607608</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.184694672021294</v>
+        <v>1.773049801964163</v>
       </c>
       <c r="C12">
-        <v>0.3808246014317831</v>
+        <v>0.3074321549602814</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03616679168333281</v>
+        <v>2.44048628798096</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007967173240877348</v>
+        <v>0.0007803896753058037</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.1375820451059404</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7261906660646318</v>
+        <v>1.96937119100545</v>
       </c>
       <c r="L12">
-        <v>0.2220517424768786</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5604393024904795</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.19884899016796</v>
+        <v>0.9226347132030241</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.166254602878951</v>
+        <v>1.763552571068828</v>
       </c>
       <c r="C13">
-        <v>0.3787116809388067</v>
+        <v>0.3058421211705422</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03613070127396778</v>
+        <v>2.425590977433188</v>
       </c>
       <c r="F13">
-        <v>2.504295469236084</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.0007972479745516486</v>
+        <v>0.0007806305563280976</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.1379402415822639</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7218482236398955</v>
+        <v>1.958876788498941</v>
       </c>
       <c r="L13">
-        <v>0.2209811249550171</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5572903778200953</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.179774567640493</v>
+        <v>0.9214514466572581</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.106324562601856</v>
+        <v>1.732602215363727</v>
       </c>
       <c r="C14">
-        <v>0.3718429197031412</v>
+        <v>0.300662459578831</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0360139629584646</v>
+        <v>2.377178234262288</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007989794557590776</v>
+        <v>0.0007814170707649012</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.1391396450620661</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7077341407910254</v>
+        <v>1.924679139799167</v>
       </c>
       <c r="L14">
-        <v>0.2175031317853637</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.54705727126629</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.117846235618941</v>
+        <v>0.9177617479495552</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.06977141266708</v>
+        <v>1.713660819443874</v>
       </c>
       <c r="C15">
-        <v>0.3676520115184303</v>
+        <v>0.2974940932503216</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03594318218446091</v>
+        <v>2.347647298946413</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.0008000408017312712</v>
+        <v>0.0007818995796984954</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1398980432953749</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6991245997285063</v>
+        <v>1.903752195749064</v>
       </c>
       <c r="L15">
-        <v>0.2153829582303217</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5408164610766875</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.080122255685694</v>
+        <v>0.9156299918462025</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.862553363564189</v>
+        <v>1.605351476552528</v>
       </c>
       <c r="C16">
-        <v>0.3438693618143702</v>
+        <v>0.2793990192931233</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03554815425508462</v>
+        <v>2.18019383067201</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.000806137100185098</v>
+        <v>0.0007846767618929423</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.1445964793587677</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6503024838210365</v>
+        <v>1.784114348877978</v>
       </c>
       <c r="L16">
-        <v>0.2033816761819054</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5054480739443719</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.866970976625538</v>
+        <v>0.9053110272637355</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.737304022495664</v>
+        <v>1.539098876437578</v>
       </c>
       <c r="C17">
-        <v>0.3294697778005968</v>
+        <v>0.2683482409674127</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03531472742702668</v>
+        <v>2.078934217533217</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0008098921520045075</v>
+        <v>0.0007863920011909894</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1477813211859029</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6207785782731889</v>
+        <v>1.710952441230774</v>
       </c>
       <c r="L17">
-        <v>0.1961438342426618</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4840798150235415</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.738734103057936</v>
+        <v>0.900601135235604</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.665899739319229</v>
+        <v>1.501055299465435</v>
       </c>
       <c r="C18">
-        <v>0.3212505851638383</v>
+        <v>0.2620086010540632</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03518353878147895</v>
+        <v>2.021187275498548</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0008120584936642788</v>
+        <v>0.0007873830710500851</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1497197644177852</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6039415454425097</v>
+        <v>1.668948076201048</v>
       </c>
       <c r="L18">
-        <v>0.1920235607672964</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4719014250020663</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.66583585449419</v>
+        <v>0.8984599175361438</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.641827960713954</v>
+        <v>1.488184581451918</v>
       </c>
       <c r="C19">
-        <v>0.3184779212407562</v>
+        <v>0.259864765870276</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03513963002971732</v>
+        <v>2.00171612268295</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.0008127931892057582</v>
+        <v>0.0007877194297509864</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1503939793143125</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5982644727723638</v>
+        <v>1.654738438538772</v>
       </c>
       <c r="L19">
-        <v>0.1906355732561167</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4677964763735289</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.641295388046728</v>
+        <v>0.8978299167488046</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.750570087363485</v>
+        <v>1.546144881674081</v>
       </c>
       <c r="C20">
-        <v>0.3309959618921141</v>
+        <v>0.2695228687770737</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03533925375617919</v>
+        <v>2.089661285417193</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0008094917649147518</v>
+        <v>0.0007862089503558589</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.1474311556321801</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.623906237435861</v>
+        <v>1.718732547073841</v>
       </c>
       <c r="L20">
-        <v>0.1969098251904455</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4863427109373362</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.752294637705575</v>
+        <v>0.901043138269543</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.123894684568938</v>
+        <v>1.741689583197171</v>
       </c>
       <c r="C21">
-        <v>0.3738569785165851</v>
+        <v>0.3021829385542389</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.03604809949194543</v>
+        <v>2.391372263549727</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007984707248079458</v>
+        <v>0.0007811858985851452</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.1387823783812436</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7118722610996713</v>
+        <v>1.934719574528913</v>
       </c>
       <c r="L21">
-        <v>0.2185225584684929</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5500572451739316</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.135992125983933</v>
+        <v>0.9188185972244582</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.374709994228112</v>
+        <v>1.870211950696245</v>
       </c>
       <c r="C22">
-        <v>0.4025844676787926</v>
+        <v>0.3237166160916445</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.03654325386985047</v>
+        <v>2.593952569065436</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0007913046650746776</v>
+        <v>0.0007779371895720866</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.1341794532659115</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.7709282780198166</v>
+        <v>2.076755078759419</v>
       </c>
       <c r="L22">
-        <v>0.2330957981057225</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5928941289473642</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.395924824016305</v>
+        <v>0.9361018658192393</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.240159452760906</v>
+        <v>1.801542798640639</v>
       </c>
       <c r="C23">
-        <v>0.3871784936522715</v>
+        <v>0.3122042839547134</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.03627582439415811</v>
+        <v>2.485286498458407</v>
       </c>
       <c r="F23">
         <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0.0007951270744083958</v>
+        <v>0.000779668271450459</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.1365349527480646</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.739251055777018</v>
+        <v>2.000857914593666</v>
       </c>
       <c r="L23">
-        <v>0.225273259589386</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5699114940563845</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.256276543610483</v>
+        <v>0.9263277133011485</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.744570632793057</v>
+        <v>1.542959241371847</v>
       </c>
       <c r="C24">
-        <v>0.3303057909112823</v>
+        <v>0.2689917776281874</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03532815606990169</v>
+        <v>2.084810129035333</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0008096727563329912</v>
+        <v>0.0007862916920897731</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.1475891319172469</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6224918000335791</v>
+        <v>1.715214984546606</v>
       </c>
       <c r="L24">
-        <v>0.1965633941320988</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4853193260391464</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.746161360476208</v>
+        <v>0.9008415505156364</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.233808472547651</v>
+        <v>1.266374408343268</v>
       </c>
       <c r="C25">
-        <v>0.2713066600056919</v>
+        <v>0.2229910383446594</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03442152195115877</v>
+        <v>1.671319451597384</v>
       </c>
       <c r="F25">
-        <v>1.757113814925077</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.0008256217756903439</v>
+        <v>0.0007936113536951839</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1635411267233344</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5019472119002657</v>
+        <v>1.409933698260943</v>
       </c>
       <c r="L25">
-        <v>0.1671999088966913</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3982725176471362</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.228156741583319</v>
+        <v>0.894771598973918</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_44/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.063943241153567</v>
+        <v>0.3484939204877833</v>
       </c>
       <c r="C2">
-        <v>0.1894474809784725</v>
+        <v>0.06223709392628507</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.37824828199345</v>
+        <v>0.4171142783858812</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.0007991806707657021</v>
+        <v>0.00241649757100462</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1782804458982827</v>
+        <v>0.4435338466345726</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.186632915398064</v>
+        <v>0.3724996450426943</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9058610626776726</v>
+        <v>1.948616353775151</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9271645936961477</v>
+        <v>0.3058381716033693</v>
       </c>
       <c r="C3">
-        <v>0.1668326564498983</v>
+        <v>0.05512112264007385</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.184804477776822</v>
+        <v>0.3639871998607731</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.0008030801470327927</v>
+        <v>0.002418869006671513</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1899277572166991</v>
+        <v>0.4513819614751267</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.035802483956388</v>
+        <v>0.3252874019270848</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9218148627610105</v>
+        <v>1.97563386966678</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8432825215004414</v>
+        <v>0.2795943953214532</v>
       </c>
       <c r="C4">
-        <v>0.1529802961986348</v>
+        <v>0.05072847772716216</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.068022071161238</v>
+        <v>0.331447085941619</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.0008055399910253475</v>
+        <v>0.002420399871837093</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1978341135723589</v>
+        <v>0.456533088198583</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9433174301705947</v>
+        <v>0.2962156432450058</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9353926542051596</v>
+        <v>1.993797288093489</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8091117247776083</v>
+        <v>0.2688870992604961</v>
       </c>
       <c r="C5">
-        <v>0.1473403876173762</v>
+        <v>0.04893259515850445</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.020858027003911</v>
+        <v>0.3182053690840547</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008065594043981623</v>
+        <v>0.002421042578568836</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2012370017139293</v>
+        <v>0.4587156186331089</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9056443749692562</v>
+        <v>0.2843482909942736</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.941823903609162</v>
+        <v>2.001593960718282</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8034380294629386</v>
+        <v>0.2671084082717243</v>
       </c>
       <c r="C6">
-        <v>0.1464040974589125</v>
+        <v>0.04863403853310899</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.013050094644555</v>
+        <v>0.3160076743161113</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0008067297191634065</v>
+        <v>0.002421150440980777</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2018127311401727</v>
+        <v>0.4590830586501706</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8993892695506247</v>
+        <v>0.2823765122144266</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9429445715113189</v>
+        <v>2.002912415873908</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8428216513815698</v>
+        <v>0.2794500438148191</v>
       </c>
       <c r="C7">
-        <v>0.1529042182075813</v>
+        <v>0.05070428143221761</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.067384371928469</v>
+        <v>0.3312684300033197</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0008055536696160714</v>
+        <v>0.002420408463528723</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1978792846114175</v>
+        <v>0.4565621850905863</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9428093165430482</v>
+        <v>0.2960556777321983</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9354758190521153</v>
+        <v>1.993900839020199</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.016752643196924</v>
+        <v>0.333797544591846</v>
       </c>
       <c r="C8">
-        <v>0.1816409080917509</v>
+        <v>0.05978838886584015</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.311087908246975</v>
+        <v>0.3987785087160489</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.0008005119314804585</v>
+        <v>0.002417299754088083</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1821342908918346</v>
+        <v>0.4461707963942061</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.134590387480728</v>
+        <v>0.3562384621875196</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.910544130846219</v>
+        <v>1.957604592225096</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.359303710063188</v>
+        <v>0.4399324716094384</v>
       </c>
       <c r="C9">
-        <v>0.2384233969984422</v>
+        <v>0.07741555569937475</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.808558085701847</v>
+        <v>0.5318754523272133</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.00079111960073606</v>
+        <v>0.002411794336553484</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1576729508029366</v>
+        <v>0.4284377070950871</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.512479041402258</v>
+        <v>0.4735774122494831</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.8942194344836167</v>
+        <v>1.898966217579627</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.612920437006295</v>
+        <v>0.5176222422298054</v>
       </c>
       <c r="C10">
-        <v>0.2806623566452657</v>
+        <v>0.09025234667555537</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.191818475653079</v>
+        <v>0.6302061334237266</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0007844816326871284</v>
+        <v>0.002408105828749936</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1442478378782184</v>
+        <v>0.4170310572084652</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.792473618205207</v>
+        <v>0.5593556118152776</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9059273732816422</v>
+        <v>1.863590576237073</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.728979072006268</v>
+        <v>0.5528993887349998</v>
       </c>
       <c r="C11">
-        <v>0.3000563184031364</v>
+        <v>0.09606749079657106</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.371523800185898</v>
+        <v>0.6750822206415421</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.000781509296334601</v>
+        <v>0.002406504388814363</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1392832761477898</v>
+        <v>0.412196141996148</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.920676093891473</v>
+        <v>0.5982818952272737</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.9173465399607608</v>
+        <v>1.849184014603992</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.773049801964163</v>
+        <v>0.5662482166005418</v>
       </c>
       <c r="C12">
-        <v>0.3074321549602814</v>
+        <v>0.09826600879426906</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.44048628798096</v>
+        <v>0.6920982966960167</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0007803896753058037</v>
+        <v>0.002405908901362836</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1375820451059404</v>
+        <v>0.4104163791192654</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.96937119100545</v>
+        <v>0.6130082266179784</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.9226347132030241</v>
+        <v>1.843972192905639</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.763552571068828</v>
+        <v>0.5633737559892324</v>
       </c>
       <c r="C13">
-        <v>0.3058421211705422</v>
+        <v>0.09779267724718466</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.425590977433188</v>
+        <v>0.6884325545406256</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007806305563280976</v>
+        <v>0.002406036664469222</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1379402415822639</v>
+        <v>0.4107974062773749</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.958876788498941</v>
+        <v>0.6098372889792927</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.9214514466572581</v>
+        <v>1.845083797492677</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.732602215363727</v>
+        <v>0.5539978059757686</v>
       </c>
       <c r="C14">
-        <v>0.300662459578831</v>
+        <v>0.09624843561852003</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.377178234262288</v>
+        <v>0.6764816836234075</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007814170707649012</v>
+        <v>0.002406455178808758</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1391396450620661</v>
+        <v>0.412048694239008</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.924679139799167</v>
+        <v>0.5994937275072516</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.9177617479495552</v>
+        <v>1.848750345369155</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.713660819443874</v>
+        <v>0.5482534634613785</v>
       </c>
       <c r="C15">
-        <v>0.2974940932503216</v>
+        <v>0.09530207926741241</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.347647298946413</v>
+        <v>0.6691644057418245</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007818995796984954</v>
+        <v>0.002406712954271105</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1398980432953749</v>
+        <v>0.4128218069959004</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.903752195749064</v>
+        <v>0.5931561296164034</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.9156299918462025</v>
+        <v>1.851027974972425</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.605351476552528</v>
+        <v>0.5153154509564786</v>
       </c>
       <c r="C16">
-        <v>0.2793990192931233</v>
+        <v>0.08987181889470719</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.18019383067201</v>
+        <v>0.6272764316697561</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0007846767618929423</v>
+        <v>0.002408212021057565</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1445964793587677</v>
+        <v>0.4173541718051013</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.784114348877978</v>
+        <v>0.5568097319012395</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9053110272637355</v>
+        <v>1.864566106795422</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.539098876437578</v>
+        <v>0.4950921355914204</v>
       </c>
       <c r="C17">
-        <v>0.2683482409674127</v>
+        <v>0.0865342538850058</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.078934217533217</v>
+        <v>0.6016178007943438</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.0007863920011909894</v>
+        <v>0.002409151199493031</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1477813211859029</v>
+        <v>0.4202254519424926</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.710952441230774</v>
+        <v>0.5344877255716654</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.900601135235604</v>
+        <v>1.873303979068027</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.501055299465435</v>
+        <v>0.4834542016864418</v>
       </c>
       <c r="C18">
-        <v>0.2620086010540632</v>
+        <v>0.08461228299634627</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.021187275498548</v>
+        <v>0.5868731816924679</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007873830710500851</v>
+        <v>0.002409698591981981</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1497197644177852</v>
+        <v>0.4219102466756688</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.668948076201048</v>
+        <v>0.5216398243412925</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8984599175361438</v>
+        <v>1.878488394740458</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.488184581451918</v>
+        <v>0.4795127824308736</v>
       </c>
       <c r="C19">
-        <v>0.259864765870276</v>
+        <v>0.08396114446814806</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.00171612268295</v>
+        <v>0.5818831842433951</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.0007877194297509864</v>
+        <v>0.002409885168378297</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1503939793143125</v>
+        <v>0.4224864040459657</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.654738438538772</v>
+        <v>0.5172882399758976</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.8978299167488046</v>
+        <v>1.880270956319535</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.546144881674081</v>
+        <v>0.4972455693116444</v>
       </c>
       <c r="C20">
-        <v>0.2695228687770737</v>
+        <v>0.08688978090134469</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.089661285417193</v>
+        <v>0.6043477920757852</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0007862089503558589</v>
+        <v>0.002409050477230646</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1474311556321801</v>
+        <v>0.4199163502831205</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.718732547073841</v>
+        <v>0.5368648639778542</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.901043138269543</v>
+        <v>1.872357392204009</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.741689583197171</v>
+        <v>0.5567520222773226</v>
       </c>
       <c r="C21">
-        <v>0.3021829385542389</v>
+        <v>0.09670211354446678</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.391372263549727</v>
+        <v>0.6799913210588642</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.0007811858985851452</v>
+        <v>0.002406331954364384</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1387823783812436</v>
+        <v>0.4116797717532741</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.934719574528913</v>
+        <v>0.6025322725529918</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9188185972244582</v>
+        <v>1.847666769842505</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.870211950696245</v>
+        <v>0.5955851659292932</v>
       </c>
       <c r="C22">
-        <v>0.3237166160916445</v>
+        <v>0.1030943225424892</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.593952569065436</v>
+        <v>0.7295605129487797</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007779371895720866</v>
+        <v>0.002404619002945239</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1341794532659115</v>
+        <v>0.4065947224961768</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.076755078759419</v>
+        <v>0.6453666362063473</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.9361018658192393</v>
+        <v>1.832950639184347</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.801542798640639</v>
+        <v>0.5748646727600715</v>
       </c>
       <c r="C23">
-        <v>0.3122042839547134</v>
+        <v>0.09968459074235625</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.485286498458407</v>
+        <v>0.7030919027533002</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.000779668271450459</v>
+        <v>0.002405527421128307</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1365349527480646</v>
+        <v>0.4092813709209615</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.000857914593666</v>
+        <v>0.6225129280305453</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.9263277133011485</v>
+        <v>1.840674535449025</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.542959241371847</v>
+        <v>0.4962720370191676</v>
       </c>
       <c r="C24">
-        <v>0.2689917776281874</v>
+        <v>0.08672905698011846</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.084810129035333</v>
+        <v>0.603113541773709</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0007862916920897731</v>
+        <v>0.00240909599061524</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1475891319172469</v>
+        <v>0.4200559890680751</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.715214984546606</v>
+        <v>0.5357902053958128</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9008415505156364</v>
+        <v>1.872784843013861</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.266374408343268</v>
+        <v>0.4112693007616599</v>
       </c>
       <c r="C25">
-        <v>0.2229910383446594</v>
+        <v>0.07266694058863266</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.671319451597384</v>
+        <v>0.4957817183553743</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.0007936113536951839</v>
+        <v>0.002413220849700692</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1635411267233344</v>
+        <v>0.4329508711142633</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.409933698260943</v>
+        <v>0.4419085807279259</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.894771598973918</v>
+        <v>1.913480708087192</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_44/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3484939204877833</v>
+        <v>1.063943241153424</v>
       </c>
       <c r="C2">
-        <v>0.06223709392628507</v>
+        <v>0.1894474809784583</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4171142783858812</v>
+        <v>1.378248281993436</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.00241649757100462</v>
+        <v>0.0007991806707060845</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4435338466345726</v>
+        <v>0.1782804458982827</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3724996450426943</v>
+        <v>1.186632915397894</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.948616353775151</v>
+        <v>0.9058610626776158</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3058381716033693</v>
+        <v>0.9271645936962898</v>
       </c>
       <c r="C3">
-        <v>0.05512112264007385</v>
+        <v>0.1668326564499409</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3639871998607731</v>
+        <v>1.18480447777678</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002418869006671513</v>
+        <v>0.0008030801469740558</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4513819614751267</v>
+        <v>0.1899277572167044</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3252874019270848</v>
+        <v>1.03580248395636</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.97563386966678</v>
+        <v>0.9218148627609821</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2795943953214532</v>
+        <v>0.8432825215005266</v>
       </c>
       <c r="C4">
-        <v>0.05072847772716216</v>
+        <v>0.1529802961986633</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.331447085941619</v>
+        <v>1.068022071161209</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002420399871837093</v>
+        <v>0.0008055399910246536</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.456533088198583</v>
+        <v>0.1978341135723731</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2962156432450058</v>
+        <v>0.9433174301707083</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.993797288093489</v>
+        <v>0.9353926542051738</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2688870992604961</v>
+        <v>0.8091117247775799</v>
       </c>
       <c r="C5">
-        <v>0.04893259515850445</v>
+        <v>0.1473403876171204</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3182053690840547</v>
+        <v>1.020858027003868</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002421042578568836</v>
+        <v>0.0008065594044561954</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4587156186331089</v>
+        <v>0.2012370017139293</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2843482909942736</v>
+        <v>0.9056443749693983</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.001593960718282</v>
+        <v>0.9418239036091762</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2671084082717243</v>
+        <v>0.8034380294627965</v>
       </c>
       <c r="C6">
-        <v>0.04863403853310899</v>
+        <v>0.1464040974586567</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3160076743161113</v>
+        <v>1.013050094644512</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002421150440980777</v>
+        <v>0.0008067297191628792</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4590830586501706</v>
+        <v>0.2018127311401727</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2823765122144266</v>
+        <v>0.8993892695505679</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.002912415873908</v>
+        <v>0.9429445715112479</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2794500438148191</v>
+        <v>0.8428216513816267</v>
       </c>
       <c r="C7">
-        <v>0.05070428143221761</v>
+        <v>0.1529042182073539</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3312684300033197</v>
+        <v>1.067384371928497</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002420408463528723</v>
+        <v>0.0008055536696154628</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4565621850905863</v>
+        <v>0.1978792846114121</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2960556777321983</v>
+        <v>0.9428093165431903</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.993900839020199</v>
+        <v>0.9354758190521295</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.333797544591846</v>
+        <v>1.016752643196952</v>
       </c>
       <c r="C8">
-        <v>0.05978838886584015</v>
+        <v>0.1816409080916799</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3987785087160489</v>
+        <v>1.311087908246947</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002417299754088083</v>
+        <v>0.0008005119314504761</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4461707963942061</v>
+        <v>0.1821342908918133</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3562384621875196</v>
+        <v>1.134590387480614</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.957604592225096</v>
+        <v>0.9105441308462048</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4399324716094384</v>
+        <v>1.359303710063386</v>
       </c>
       <c r="C9">
-        <v>0.07741555569937475</v>
+        <v>0.2384233969984706</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5318754523272133</v>
+        <v>1.808558085701804</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002411794336553484</v>
+        <v>0.0007911196007922373</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4284377070950871</v>
+        <v>0.1576729508029509</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4735774122494831</v>
+        <v>1.512479041402315</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.898966217579627</v>
+        <v>0.8942194344836025</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5176222422298054</v>
+        <v>1.612920437006352</v>
       </c>
       <c r="C10">
-        <v>0.09025234667555537</v>
+        <v>0.2806623566452799</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6302061334237266</v>
+        <v>2.191818475653079</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002408105828749936</v>
+        <v>0.0007844816326876511</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4170310572084652</v>
+        <v>0.1442478378782042</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5593556118152776</v>
+        <v>1.792473618205122</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.863590576237073</v>
+        <v>0.9059273732815853</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5528993887349998</v>
+        <v>1.728979072006325</v>
       </c>
       <c r="C11">
-        <v>0.09606749079657106</v>
+        <v>0.3000563184033638</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6750822206415421</v>
+        <v>2.371523800185884</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002406504388814363</v>
+        <v>0.0007815092964309509</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.412196141996148</v>
+        <v>0.139283276147804</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5982818952272737</v>
+        <v>1.920676093891416</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.849184014603992</v>
+        <v>0.9173465399608034</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5662482166005418</v>
+        <v>1.773049801964277</v>
       </c>
       <c r="C12">
-        <v>0.09826600879426906</v>
+        <v>0.307432154960054</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6920982966960167</v>
+        <v>2.44048628798096</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002405908901362836</v>
+        <v>0.0007803896753223426</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4104163791192654</v>
+        <v>0.1375820451059546</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6130082266179784</v>
+        <v>1.969371191005479</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.843972192905639</v>
+        <v>0.922634713203081</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5633737559892324</v>
+        <v>1.763552571068857</v>
       </c>
       <c r="C13">
-        <v>0.09779267724718466</v>
+        <v>0.3058421211705706</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6884325545406256</v>
+        <v>2.425590977433259</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002406036664469222</v>
+        <v>0.0007806305563826545</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4107974062773749</v>
+        <v>0.1379402415822746</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6098372889792927</v>
+        <v>1.958876788498856</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.845083797492677</v>
+        <v>0.9214514466572439</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5539978059757686</v>
+        <v>1.732602215363585</v>
       </c>
       <c r="C14">
-        <v>0.09624843561852003</v>
+        <v>0.3006624595790868</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6764816836234075</v>
+        <v>2.37717823426226</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002406455178808758</v>
+        <v>0.0007814170708409131</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.412048694239008</v>
+        <v>0.1391396450620839</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5994937275072516</v>
+        <v>1.924679139799366</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.848750345369155</v>
+        <v>0.9177617479496121</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5482534634613785</v>
+        <v>1.713660819443902</v>
       </c>
       <c r="C15">
-        <v>0.09530207926741241</v>
+        <v>0.2974940932507764</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6691644057418245</v>
+        <v>2.347647298946427</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.002406712954271105</v>
+        <v>0.0007818995796972558</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4128218069959004</v>
+        <v>0.1398980432953749</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5931561296164034</v>
+        <v>1.903752195748922</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.851027974972425</v>
+        <v>0.9156299918462025</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5153154509564786</v>
+        <v>1.605351476552414</v>
       </c>
       <c r="C16">
-        <v>0.08987181889470719</v>
+        <v>0.2793990192931091</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6272764316697561</v>
+        <v>2.180193830671982</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002408212021057565</v>
+        <v>0.0007846767618343937</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4173541718051013</v>
+        <v>0.1445964793587819</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5568097319012395</v>
+        <v>1.784114348878148</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.864566106795422</v>
+        <v>0.9053110272638065</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4950921355914204</v>
+        <v>1.539098876437464</v>
       </c>
       <c r="C17">
-        <v>0.0865342538850058</v>
+        <v>0.2683482409673843</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6016178007943438</v>
+        <v>2.078934217533188</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.002409151199493031</v>
+        <v>0.0007863920011898728</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4202254519424926</v>
+        <v>0.1477813211859029</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5344877255716654</v>
+        <v>1.710952441230859</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.873303979068027</v>
+        <v>0.9006011352355898</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4834542016864418</v>
+        <v>1.501055299465435</v>
       </c>
       <c r="C18">
-        <v>0.08461228299634627</v>
+        <v>0.26200860105412</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5868731816924679</v>
+        <v>2.021187275498633</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002409698591981981</v>
+        <v>0.0007873830710480813</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4219102466756688</v>
+        <v>0.1497197644177852</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5216398243412925</v>
+        <v>1.66894807620119</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.878488394740458</v>
+        <v>0.8984599175361723</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4795127824308736</v>
+        <v>1.488184581452032</v>
       </c>
       <c r="C19">
-        <v>0.08396114446814806</v>
+        <v>0.2598647658702333</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5818831842433951</v>
+        <v>2.001716122682907</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002409885168378297</v>
+        <v>0.0007877194297851197</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4224864040459657</v>
+        <v>0.1503939793143054</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5172882399758976</v>
+        <v>1.654738438538658</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.880270956319535</v>
+        <v>0.8978299167487904</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4972455693116444</v>
+        <v>1.546144881674053</v>
       </c>
       <c r="C20">
-        <v>0.08688978090134469</v>
+        <v>0.2695228687771305</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6043477920757852</v>
+        <v>2.089661285417193</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002409050477230646</v>
+        <v>0.0007862089503555703</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4199163502831205</v>
+        <v>0.1474311556321908</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5368648639778542</v>
+        <v>1.718732547074012</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.872357392204009</v>
+        <v>0.901043138269543</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5567520222773226</v>
+        <v>1.741689583197143</v>
       </c>
       <c r="C21">
-        <v>0.09670211354446678</v>
+        <v>0.3021829385543242</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6799913210588642</v>
+        <v>2.391372263549755</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002406331954364384</v>
+        <v>0.0007811858985841769</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4116797717532741</v>
+        <v>0.1387823783812507</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6025322725529918</v>
+        <v>1.934719574528913</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.847666769842505</v>
+        <v>0.9188185972244582</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5955851659292932</v>
+        <v>1.87021195069633</v>
       </c>
       <c r="C22">
-        <v>0.1030943225424892</v>
+        <v>0.3237166160916445</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7295605129487797</v>
+        <v>2.593952569065422</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002404619002945239</v>
+        <v>0.0007779371895140124</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4065947224961768</v>
+        <v>0.1341794532659257</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6453666362063473</v>
+        <v>2.07675507875939</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.832950639184347</v>
+        <v>0.9361018658192535</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5748646727600715</v>
+        <v>1.801542798640526</v>
       </c>
       <c r="C23">
-        <v>0.09968459074235625</v>
+        <v>0.3122042839550829</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7030919027533002</v>
+        <v>2.485286498458393</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002405527421128307</v>
+        <v>0.0007796682715458668</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4092813709209615</v>
+        <v>0.1365349527480504</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6225129280305453</v>
+        <v>2.000857914593695</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.840674535449025</v>
+        <v>0.9263277133012338</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4962720370191676</v>
+        <v>1.542959241371904</v>
       </c>
       <c r="C24">
-        <v>0.08672905698011846</v>
+        <v>0.2689917776281874</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.603113541773709</v>
+        <v>2.08481012903529</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.00240909599061524</v>
+        <v>0.0007862916920315974</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4200559890680751</v>
+        <v>0.1475891319172575</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5357902053958128</v>
+        <v>1.715214984546691</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.872784843013861</v>
+        <v>0.900841550515679</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4112693007616599</v>
+        <v>1.266374408343239</v>
       </c>
       <c r="C25">
-        <v>0.07266694058863266</v>
+        <v>0.2229910383446736</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4957817183553743</v>
+        <v>1.671319451597341</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002413220849700692</v>
+        <v>0.0007936113537093115</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4329508711142633</v>
+        <v>0.1635411267233291</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4419085807279259</v>
+        <v>1.409933698260886</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.913480708087192</v>
+        <v>0.894771598973918</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_44/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.063943241153424</v>
+        <v>0.9425179205651375</v>
       </c>
       <c r="C2">
-        <v>0.1894474809784583</v>
+        <v>0.1690605451731528</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.378248281993436</v>
+        <v>0.06704860354731323</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007991806707060845</v>
+        <v>0.2577174679421823</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.00659041010586589</v>
       </c>
       <c r="I2">
-        <v>0.1782804458982827</v>
+        <v>0.006849710956875033</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2794486948161286</v>
       </c>
       <c r="K2">
-        <v>1.186632915397894</v>
+        <v>0.3223088786855772</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8545843236934161</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1598740238384551</v>
       </c>
       <c r="O2">
-        <v>0.9058610626776158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.2039652086081603</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.078141641781734</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9271645936962898</v>
+        <v>0.8217354109827966</v>
       </c>
       <c r="C3">
-        <v>0.1668326564499409</v>
+        <v>0.1638409854371972</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.18480447777678</v>
+        <v>0.06416413050799363</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0008030801469740558</v>
+        <v>0.2633092126663996</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.008265904729592474</v>
       </c>
       <c r="I3">
-        <v>0.1899277572167044</v>
+        <v>0.008445498553330655</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2861840599726975</v>
       </c>
       <c r="K3">
-        <v>1.03580248395636</v>
+        <v>0.3316271473387342</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.752824892231061</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1434358025556364</v>
       </c>
       <c r="O3">
-        <v>0.9218148627609821</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1781235855630676</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.103855261345139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8432825215005266</v>
+        <v>0.7472779098163471</v>
       </c>
       <c r="C4">
-        <v>0.1529802961986633</v>
+        <v>0.1606596656728598</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.068022071161209</v>
+        <v>0.06237028557026569</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008055399910246536</v>
+        <v>0.2670716535444804</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.009432010802236462</v>
       </c>
       <c r="I4">
-        <v>0.1978341135723731</v>
+        <v>0.009585051955331991</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2905486193693676</v>
       </c>
       <c r="K4">
-        <v>0.9433174301707083</v>
+        <v>0.3376032686939006</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6902829405048578</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1333591499921738</v>
       </c>
       <c r="O4">
-        <v>0.9353926542051738</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.162224229443936</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.120814748218109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8091117247775799</v>
+        <v>0.716562339541241</v>
       </c>
       <c r="C5">
-        <v>0.1473403876171204</v>
+        <v>0.159504349975478</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.020858027003868</v>
+        <v>0.06158581428632814</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008065594044561954</v>
+        <v>0.2684050409454741</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.009944094514854767</v>
       </c>
       <c r="I5">
-        <v>0.2012370017139293</v>
+        <v>0.01017131217224199</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2922307112294327</v>
       </c>
       <c r="K5">
-        <v>0.9056443749693983</v>
+        <v>0.3398608458557675</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6650913480547729</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1293102171662923</v>
       </c>
       <c r="O5">
-        <v>0.9418239036091762</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1557197921754074</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.127098284736896</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8034380294627965</v>
+        <v>0.7110929135016022</v>
       </c>
       <c r="C6">
-        <v>0.1464040974586567</v>
+        <v>0.1594809950862626</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.013050094644512</v>
+        <v>0.06139693481916808</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0008067297191628792</v>
+        <v>0.2682894671610683</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01003540055730099</v>
       </c>
       <c r="I6">
-        <v>0.2018127311401727</v>
+        <v>0.01037966744448049</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2923265877735766</v>
       </c>
       <c r="K6">
-        <v>0.8993892695505679</v>
+        <v>0.3399463767520796</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6612910610613341</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1287043512348234</v>
       </c>
       <c r="O6">
-        <v>0.9429445715112479</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1546188772236228</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.127042641845215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8428216513816267</v>
+        <v>0.7458651461902832</v>
       </c>
       <c r="C7">
-        <v>0.1529042182073539</v>
+        <v>0.1611060944239853</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.067384371928497</v>
+        <v>0.06220089838491027</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0008055536696154628</v>
+        <v>0.2661589555606199</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.009449859412226633</v>
       </c>
       <c r="I7">
-        <v>0.1978792846114121</v>
+        <v>0.009873644539078796</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2900636615154646</v>
       </c>
       <c r="K7">
-        <v>0.9428093165431903</v>
+        <v>0.3368371696752881</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.6909959394752434</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1334862329646711</v>
       </c>
       <c r="O7">
-        <v>0.9354758190521295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1620808048080207</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.11786236947124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.016752643196952</v>
+        <v>0.8995979255639384</v>
       </c>
       <c r="C8">
-        <v>0.1816409080916799</v>
+        <v>0.1678831418721245</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.311087908246947</v>
+        <v>0.06585013231131676</v>
       </c>
       <c r="F8">
-        <v>1.39074283177348</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0008005119314504761</v>
+        <v>0.2583611781517448</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.007150748376324401</v>
       </c>
       <c r="I8">
-        <v>0.1821342908918133</v>
+        <v>0.007705206191737091</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2810649947300377</v>
       </c>
       <c r="K8">
-        <v>1.134590387480614</v>
+        <v>0.32443725719423</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.8209185684384295</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1544457056185209</v>
       </c>
       <c r="O8">
-        <v>0.9105441308462048</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.1949865439655483</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.082806502042473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.359303710063386</v>
+        <v>1.200601542051999</v>
       </c>
       <c r="C9">
-        <v>0.2384233969984706</v>
+        <v>0.1805558522017492</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.808558085701804</v>
+        <v>0.07311018404549863</v>
       </c>
       <c r="F9">
-        <v>1.895061171842812</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0007911196007922373</v>
+        <v>0.247435422732778</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.003771721893799818</v>
       </c>
       <c r="I9">
-        <v>0.1576729508029509</v>
+        <v>0.004348411601690749</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2661677062299646</v>
       </c>
       <c r="K9">
-        <v>1.512479041402315</v>
+        <v>0.3035828924908905</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.073463958434985</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1953885336830155</v>
       </c>
       <c r="O9">
-        <v>0.8942194344836025</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2593887783411866</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.029028099877948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.612920437006352</v>
+        <v>1.418653848109074</v>
       </c>
       <c r="C10">
-        <v>0.2806623566452799</v>
+        <v>0.192089499160474</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.191818475653079</v>
+        <v>0.07515611083996099</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.0007844816326876511</v>
+        <v>0.2365429978189866</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.00235789292143096</v>
       </c>
       <c r="I10">
-        <v>0.1442478378782042</v>
+        <v>0.002944428584466863</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2539373708436727</v>
       </c>
       <c r="K10">
-        <v>1.792473618205122</v>
+        <v>0.2860040618682191</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.265000507777984</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2144995342659968</v>
       </c>
       <c r="O10">
-        <v>0.9059273732815853</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.3010549798724753</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.9807191900079602</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.728979072006325</v>
+        <v>1.504205809506715</v>
       </c>
       <c r="C11">
-        <v>0.3000563184033638</v>
+        <v>0.216634456072839</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.371523800185884</v>
+        <v>0.05468941982256403</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007815092964309509</v>
+        <v>0.1968883784937532</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02107200004278198</v>
       </c>
       <c r="I11">
-        <v>0.139283276147804</v>
+        <v>0.003157492901670444</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2298448123958465</v>
       </c>
       <c r="K11">
-        <v>1.920676093891416</v>
+        <v>0.2529639217288935</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.402698761795904</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1377704401418782</v>
       </c>
       <c r="O11">
-        <v>0.9173465399608034</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.27298888307444</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.8463428206949288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.773049801964277</v>
+        <v>1.531867328710462</v>
       </c>
       <c r="C12">
-        <v>0.307432154960054</v>
+        <v>0.2378221979274713</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.44048628798096</v>
+        <v>0.04493204064295009</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007803896753223426</v>
+        <v>0.1706978861286998</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05995585355525179</v>
       </c>
       <c r="I12">
-        <v>0.1375820451059546</v>
+        <v>0.003100489710836207</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2144332213616558</v>
       </c>
       <c r="K12">
-        <v>1.969371191005479</v>
+        <v>0.2343191369149773</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.479262602492298</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.08459432594087701</v>
       </c>
       <c r="O12">
-        <v>0.922634713203081</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.2420177289863865</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.758586295663342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.763552571068857</v>
+        <v>1.514726133363041</v>
       </c>
       <c r="C13">
-        <v>0.3058421211705706</v>
+        <v>0.2580745806486675</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.425590977433259</v>
+        <v>0.04245822899776153</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.0007806305563826545</v>
+        <v>0.1516374871491308</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1160115152777621</v>
       </c>
       <c r="I13">
-        <v>0.1379402415822746</v>
+        <v>0.003222904188386444</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2038502300072693</v>
       </c>
       <c r="K13">
-        <v>1.958876788498856</v>
+        <v>0.2241252081772611</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.514125243322241</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.04676587410497035</v>
       </c>
       <c r="O13">
-        <v>0.9214514466572439</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.2071327220322203</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.6959783455538258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.732602215363585</v>
+        <v>1.482141211160041</v>
       </c>
       <c r="C14">
-        <v>0.3006624595790868</v>
+        <v>0.2723813578820966</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.37717823426226</v>
+        <v>0.04498785071065914</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007814170708409131</v>
+        <v>0.1418680466923394</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1656056823670298</v>
       </c>
       <c r="I14">
-        <v>0.1391396450620839</v>
+        <v>0.003484708697828687</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1987509079916308</v>
       </c>
       <c r="K14">
-        <v>1.924679139799366</v>
+        <v>0.2212474016732305</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.519951199868643</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.0295090622644647</v>
       </c>
       <c r="O14">
-        <v>0.9177617479496121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.1813585073529183</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.6645249837620497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.713660819443902</v>
+        <v>1.464261594655312</v>
       </c>
       <c r="C15">
-        <v>0.2974940932507764</v>
+        <v>0.275531827427713</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.347647298946427</v>
+        <v>0.04614816896101814</v>
       </c>
       <c r="F15">
         <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.0007818995796972558</v>
+        <v>0.1403723209356968</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1782297676163438</v>
       </c>
       <c r="I15">
-        <v>0.1398980432953749</v>
+        <v>0.003720668649433101</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1982250382036082</v>
       </c>
       <c r="K15">
-        <v>1.903752195748922</v>
+        <v>0.2216938161569756</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.512521275038893</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.0265414913509936</v>
       </c>
       <c r="O15">
-        <v>0.9156299918462025</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.1741095403251833</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.6602196172557768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.605351476552414</v>
+        <v>1.373346048590861</v>
       </c>
       <c r="C16">
-        <v>0.2793990192931091</v>
+        <v>0.2659460925023609</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.180193830671982</v>
+        <v>0.04564717806259821</v>
       </c>
       <c r="F16">
         <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.0007846767618343937</v>
+        <v>0.147868692904856</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.166126923758128</v>
       </c>
       <c r="I16">
-        <v>0.1445964793587819</v>
+        <v>0.004422770503724749</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2049106414742159</v>
       </c>
       <c r="K16">
-        <v>1.784114348878148</v>
+        <v>0.2301576314875806</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.421909749902369</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.02701092392175752</v>
       </c>
       <c r="O16">
-        <v>0.9053110272638065</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1642396752469502</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.6899482038318112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.539098876437464</v>
+        <v>1.321008940760549</v>
       </c>
       <c r="C17">
-        <v>0.2683482409673843</v>
+        <v>0.2508565083711858</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.078934217533188</v>
+        <v>0.04324407202153413</v>
       </c>
       <c r="F17">
-        <v>2.164227570872086</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007863920011898728</v>
+        <v>0.1585948421313486</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1287088645674146</v>
       </c>
       <c r="I17">
-        <v>0.1477813211859029</v>
+        <v>0.004860115879883331</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2126949013044062</v>
       </c>
       <c r="K17">
-        <v>1.710952441230859</v>
+        <v>0.2379377548790425</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.349603310230691</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.03498404684424017</v>
       </c>
       <c r="O17">
-        <v>0.9006011352355898</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.1700525640509767</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.728897331897965</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.501055299465435</v>
+        <v>1.296629777172313</v>
       </c>
       <c r="C18">
-        <v>0.26200860105412</v>
+        <v>0.2302157411174051</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.021187275498633</v>
+        <v>0.04267572333950634</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007873830710480813</v>
+        <v>0.1755371090843276</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07592080892394648</v>
       </c>
       <c r="I18">
-        <v>0.1497197644177852</v>
+        <v>0.004754794127732609</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2233602621649595</v>
       </c>
       <c r="K18">
-        <v>1.66894807620119</v>
+        <v>0.2483865384404114</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.284644221244406</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.05816947390805893</v>
       </c>
       <c r="O18">
-        <v>0.8984599175361723</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.1909312928999931</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.7871124939542966</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.488184581452032</v>
+        <v>1.294457609187845</v>
       </c>
       <c r="C19">
-        <v>0.2598647658702333</v>
+        <v>0.2106536497592373</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.001716122682907</v>
+        <v>0.04914513871187776</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.0007877194297851197</v>
+        <v>0.1980537522575148</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03028557992099223</v>
       </c>
       <c r="I19">
-        <v>0.1503939793143054</v>
+        <v>0.004767359805047278</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2362603152767875</v>
       </c>
       <c r="K19">
-        <v>1.654738438538658</v>
+        <v>0.2628907286965969</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.233634047889637</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1039752926174558</v>
       </c>
       <c r="O19">
-        <v>0.8978299167487904</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2238339458207932</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.8618694343149613</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.546144881674053</v>
+        <v>1.358218748873043</v>
       </c>
       <c r="C20">
-        <v>0.2695228687771305</v>
+        <v>0.1907341132240603</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.089661285417193</v>
+        <v>0.07402012127061042</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007862089503555703</v>
+        <v>0.2363582406353117</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.002680122552308539</v>
       </c>
       <c r="I20">
-        <v>0.1474311556321908</v>
+        <v>0.004104346690356309</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2555031426407908</v>
       </c>
       <c r="K20">
-        <v>1.718732547074012</v>
+        <v>0.2881274140585894</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.218325424957357</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2095725921224414</v>
       </c>
       <c r="O20">
-        <v>0.901043138269543</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.2897148728961199</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.9835027552335589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.741689583197143</v>
+        <v>1.527904508719047</v>
       </c>
       <c r="C21">
-        <v>0.3021829385543242</v>
+        <v>0.1966250641027187</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.391372263549755</v>
+        <v>0.08046586567899361</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007811858985841769</v>
+        <v>0.2358316409387413</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.001424680656389676</v>
       </c>
       <c r="I21">
-        <v>0.1387823783812507</v>
+        <v>0.003094041430355077</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2503467476378844</v>
       </c>
       <c r="K21">
-        <v>1.934719574528913</v>
+        <v>0.2806088089453578</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.356352099275881</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2415663704134658</v>
       </c>
       <c r="O21">
-        <v>0.9188185972244582</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3302524118995365</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.9718886354518474</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.87021195069633</v>
+        <v>1.639287878039767</v>
       </c>
       <c r="C22">
-        <v>0.3237166160916445</v>
+        <v>0.2007735203967727</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.593952569065422</v>
+        <v>0.08328171814208929</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0007779371895140124</v>
+        <v>0.2348473491525951</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0009025431572535769</v>
       </c>
       <c r="I22">
-        <v>0.1341794532659257</v>
+        <v>0.00230251665871517</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2466730375529878</v>
       </c>
       <c r="K22">
-        <v>2.07675507875939</v>
+        <v>0.275260824886681</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.447973120808399</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2565495685770713</v>
       </c>
       <c r="O22">
-        <v>0.9361018658192535</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.3540117252174895</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.9622986984267357</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.801542798640526</v>
+        <v>1.581075693523758</v>
       </c>
       <c r="C23">
-        <v>0.3122042839550829</v>
+        <v>0.197940633424821</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.485286498458393</v>
+        <v>0.0819618347329687</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.0007796682715458668</v>
+        <v>0.2363663845384281</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.00116201908658764</v>
       </c>
       <c r="I23">
-        <v>0.1365349527480504</v>
+        <v>0.002384553584354521</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2491599735791752</v>
       </c>
       <c r="K23">
-        <v>2.000857914593695</v>
+        <v>0.2789398448370708</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.397765655531458</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.248323129027213</v>
       </c>
       <c r="O23">
-        <v>0.9263277133012338</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3414002425230152</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.9706265318521758</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.542959241371904</v>
+        <v>1.358365662565063</v>
       </c>
       <c r="C24">
-        <v>0.2689917776281874</v>
+        <v>0.1882931479841545</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.08481012903529</v>
+        <v>0.0766494334789467</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0007862916920315974</v>
+        <v>0.2413244584259715</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.002483509495175507</v>
       </c>
       <c r="I24">
-        <v>0.1475891319172575</v>
+        <v>0.003567578183914399</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2582259702975378</v>
       </c>
       <c r="K24">
-        <v>1.715214984546691</v>
+        <v>0.2921179707369355</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.209830646803795</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2176171733885326</v>
       </c>
       <c r="O24">
-        <v>0.900841550515679</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.2935301688760177</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.9997318910712636</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.266374408343239</v>
+        <v>1.117557407941547</v>
       </c>
       <c r="C25">
-        <v>0.2229910383446736</v>
+        <v>0.1779890703539166</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.671319451597341</v>
+        <v>0.07088264829803315</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.0007936113537093115</v>
+        <v>0.2484564483250864</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.004567065283180627</v>
       </c>
       <c r="I25">
-        <v>0.1635411267233291</v>
+        <v>0.005580905238357303</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.269117311192943</v>
       </c>
       <c r="K25">
-        <v>1.409933698260886</v>
+        <v>0.3076315036415735</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.007106767298666</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1846258484314163</v>
       </c>
       <c r="O25">
-        <v>0.894771598973918</v>
+        <v>0.2418815147041826</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.037216200045464</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_44/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9425179205651375</v>
+        <v>0.9402778455807379</v>
       </c>
       <c r="C2">
-        <v>0.1690605451731528</v>
+        <v>0.1528873045967245</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06704860354731323</v>
+        <v>0.06508041292681455</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.2577174679421823</v>
+        <v>0.2261884342187948</v>
       </c>
       <c r="H2">
-        <v>0.00659041010586589</v>
+        <v>0.005365263583768737</v>
       </c>
       <c r="I2">
-        <v>0.006849710956875033</v>
+        <v>0.005061250586988031</v>
       </c>
       <c r="J2">
-        <v>0.2794486948161286</v>
+        <v>0.2888878051893293</v>
       </c>
       <c r="K2">
-        <v>0.3223088786855772</v>
+        <v>0.2966162797047929</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1379201812745539</v>
       </c>
       <c r="M2">
-        <v>0.8545843236934161</v>
+        <v>0.08840570857055674</v>
       </c>
       <c r="N2">
-        <v>0.1598740238384551</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2039652086081603</v>
+        <v>0.8657570676615194</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1663309700059514</v>
       </c>
       <c r="Q2">
-        <v>1.078141641781734</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2038653500773613</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.011544559387339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8217354109827966</v>
+        <v>0.821947730219307</v>
       </c>
       <c r="C3">
-        <v>0.1638409854371972</v>
+        <v>0.1457703457232427</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06416413050799363</v>
+        <v>0.06259339520070561</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.2633092126663996</v>
+        <v>0.2335247889807128</v>
       </c>
       <c r="H3">
-        <v>0.008265904729592474</v>
+        <v>0.006780945156262319</v>
       </c>
       <c r="I3">
-        <v>0.008445498553330655</v>
+        <v>0.006253665134337005</v>
       </c>
       <c r="J3">
-        <v>0.2861840599726975</v>
+        <v>0.2938290450613579</v>
       </c>
       <c r="K3">
-        <v>0.3316271473387342</v>
+        <v>0.3060082464282097</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1433532535389439</v>
       </c>
       <c r="M3">
-        <v>0.752824892231061</v>
+        <v>0.09167014517212335</v>
       </c>
       <c r="N3">
-        <v>0.1434358025556364</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1781235855630676</v>
+        <v>0.761397982052074</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1496925195626204</v>
       </c>
       <c r="Q3">
-        <v>1.103855261345139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1781115912351794</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.039380815835173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7472779098163471</v>
+        <v>0.7489204321890099</v>
       </c>
       <c r="C4">
-        <v>0.1606596656728598</v>
+        <v>0.1414728140902497</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06237028557026569</v>
+        <v>0.06103999437943308</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.2670716535444804</v>
+        <v>0.2383682536603686</v>
       </c>
       <c r="H4">
-        <v>0.009432010802236462</v>
+        <v>0.007769273348168515</v>
       </c>
       <c r="I4">
-        <v>0.009585051955331991</v>
+        <v>0.007123066955227131</v>
       </c>
       <c r="J4">
-        <v>0.2905486193693676</v>
+        <v>0.2969721112015051</v>
       </c>
       <c r="K4">
-        <v>0.3376032686939006</v>
+        <v>0.3119826159661923</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1469160498685849</v>
       </c>
       <c r="M4">
-        <v>0.6902829405048578</v>
+        <v>0.09410737212466236</v>
       </c>
       <c r="N4">
-        <v>0.1333591499921738</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.162224229443936</v>
+        <v>0.6973107458691175</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1395085650680628</v>
       </c>
       <c r="Q4">
-        <v>1.120814748218109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1622580753024927</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.057446898778792</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.716562339541241</v>
+        <v>0.7187761180534551</v>
       </c>
       <c r="C5">
-        <v>0.159504349975478</v>
+        <v>0.1398835842141395</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06158581428632814</v>
+        <v>0.06035446752458462</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.2684050409454741</v>
+        <v>0.2401636076264673</v>
       </c>
       <c r="H5">
-        <v>0.009944094514854767</v>
+        <v>0.008204088657115013</v>
       </c>
       <c r="I5">
-        <v>0.01017131217224199</v>
+        <v>0.007605603024919638</v>
       </c>
       <c r="J5">
-        <v>0.2922307112294327</v>
+        <v>0.2981268842591476</v>
       </c>
       <c r="K5">
-        <v>0.3398608458557675</v>
+        <v>0.3142444714466262</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1482914254225474</v>
       </c>
       <c r="M5">
-        <v>0.6650913480547729</v>
+        <v>0.09517378001948718</v>
       </c>
       <c r="N5">
-        <v>0.1293102171662923</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1557197921754074</v>
+        <v>0.6714962338885471</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1354183611863888</v>
       </c>
       <c r="Q5">
-        <v>1.127098284736896</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1557708028348941</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.06417915748564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7110929135016022</v>
+        <v>0.7134089474871814</v>
       </c>
       <c r="C6">
-        <v>0.1594809950862626</v>
+        <v>0.1397999818907323</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06139693481916808</v>
+        <v>0.06018424077428897</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.2682894671610683</v>
+        <v>0.2401487908943594</v>
       </c>
       <c r="H6">
-        <v>0.01003540055730099</v>
+        <v>0.008281832671692274</v>
       </c>
       <c r="I6">
-        <v>0.01037966744448049</v>
+        <v>0.007812390489292831</v>
       </c>
       <c r="J6">
-        <v>0.2923265877735766</v>
+        <v>0.2981334710185521</v>
       </c>
       <c r="K6">
-        <v>0.3399463767520796</v>
+        <v>0.3143506422712274</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1483613617985942</v>
       </c>
       <c r="M6">
-        <v>0.6612910610613341</v>
+        <v>0.09531387385295353</v>
       </c>
       <c r="N6">
-        <v>0.1287043512348234</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1546188772236228</v>
+        <v>0.6675853439758583</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1348039901813038</v>
       </c>
       <c r="Q6">
-        <v>1.127042641845215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.154673110912583</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.064252549987877</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7458651461902832</v>
+        <v>0.7476657382237306</v>
       </c>
       <c r="C7">
-        <v>0.1611060944239853</v>
+        <v>0.1418330472693157</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06220089838491027</v>
+        <v>0.0608856752323863</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.2661589555606199</v>
+        <v>0.2387600398636067</v>
       </c>
       <c r="H7">
-        <v>0.009449859412226633</v>
+        <v>0.007789769239976624</v>
       </c>
       <c r="I7">
-        <v>0.009873644539078796</v>
+        <v>0.007457503646626229</v>
       </c>
       <c r="J7">
-        <v>0.2900636615154646</v>
+        <v>0.2943501212203046</v>
       </c>
       <c r="K7">
-        <v>0.3368371696752881</v>
+        <v>0.3109886541569882</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1463455272755425</v>
       </c>
       <c r="M7">
-        <v>0.6909959394752434</v>
+        <v>0.09393779810393532</v>
       </c>
       <c r="N7">
-        <v>0.1334862329646711</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1620808048080207</v>
+        <v>0.69779387468175</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1395915649740047</v>
       </c>
       <c r="Q7">
-        <v>1.11786236947124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1621228312742318</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.053046322275762</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8995979255639384</v>
+        <v>0.8986771401010856</v>
       </c>
       <c r="C8">
-        <v>0.1678831418721245</v>
+        <v>0.1507246484509608</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06585013231131676</v>
+        <v>0.06405666006637389</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.2583611781517448</v>
+        <v>0.2316402845153753</v>
       </c>
       <c r="H8">
-        <v>0.007150748376324401</v>
+        <v>0.005851482063968683</v>
       </c>
       <c r="I8">
-        <v>0.007705206191737091</v>
+        <v>0.00585020056711727</v>
       </c>
       <c r="J8">
-        <v>0.2810649947300377</v>
+        <v>0.2831963641158382</v>
       </c>
       <c r="K8">
-        <v>0.32443725719423</v>
+        <v>0.2979634803890736</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1388053335341741</v>
       </c>
       <c r="M8">
-        <v>0.8209185684384295</v>
+        <v>0.08898859587493391</v>
       </c>
       <c r="N8">
-        <v>0.1544457056185209</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.1949865439655483</v>
+        <v>0.8304927563371791</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1606977903870543</v>
       </c>
       <c r="Q8">
-        <v>1.082806502042473</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.194942062924639</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.01200411777436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.200601542051999</v>
+        <v>1.193210683030941</v>
       </c>
       <c r="C9">
-        <v>0.1805558522017492</v>
+        <v>0.1682665777992227</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.07311018404549863</v>
+        <v>0.07030928157947436</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.247435422732778</v>
+        <v>0.2174483172832993</v>
       </c>
       <c r="H9">
-        <v>0.003771721893799818</v>
+        <v>0.003011709223679715</v>
       </c>
       <c r="I9">
-        <v>0.004348411601690749</v>
+        <v>0.003316215214625551</v>
       </c>
       <c r="J9">
-        <v>0.2661677062299646</v>
+        <v>0.2704131260991467</v>
       </c>
       <c r="K9">
-        <v>0.3035828924908905</v>
+        <v>0.2764105478363028</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1270498080907654</v>
       </c>
       <c r="M9">
-        <v>1.073463958434985</v>
+        <v>0.0832358651559062</v>
       </c>
       <c r="N9">
-        <v>0.1953885336830155</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.2593887783411866</v>
+        <v>1.089621582517253</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2021964938692307</v>
       </c>
       <c r="Q9">
-        <v>1.029028099877948</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.25907740320093</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.9503879999914062</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.418653848109074</v>
+        <v>1.407402929187583</v>
       </c>
       <c r="C10">
-        <v>0.192089499160474</v>
+        <v>0.1829823711087002</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.07515611083996099</v>
+        <v>0.07184094655281825</v>
       </c>
       <c r="F10">
         <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.2365429978189866</v>
+        <v>0.2122540259909442</v>
       </c>
       <c r="H10">
-        <v>0.00235789292143096</v>
+        <v>0.001886187182278842</v>
       </c>
       <c r="I10">
-        <v>0.002944428584466863</v>
+        <v>0.002413849590030104</v>
       </c>
       <c r="J10">
-        <v>0.2539373708436727</v>
+        <v>0.2498044006668998</v>
       </c>
       <c r="K10">
-        <v>0.2860040618682191</v>
+        <v>0.257508677018027</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1181156274431236</v>
       </c>
       <c r="M10">
-        <v>1.265000507777984</v>
+        <v>0.07938760781865994</v>
       </c>
       <c r="N10">
-        <v>0.2144995342659968</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.3010549798724753</v>
+        <v>1.284482663107951</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2213408593366211</v>
       </c>
       <c r="Q10">
-        <v>0.9807191900079602</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.3005616694944209</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.8894691048888888</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.504205809506715</v>
+        <v>1.497270703934987</v>
       </c>
       <c r="C11">
-        <v>0.216634456072839</v>
+        <v>0.2070137263274177</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05468941982256403</v>
+        <v>0.05252912509915486</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.1968883784937532</v>
+        <v>0.1904204326271284</v>
       </c>
       <c r="H11">
-        <v>0.02107200004278198</v>
+        <v>0.02062740361689208</v>
       </c>
       <c r="I11">
-        <v>0.003157492901670444</v>
+        <v>0.002856835832496962</v>
       </c>
       <c r="J11">
-        <v>0.2298448123958465</v>
+        <v>0.2204174511642059</v>
       </c>
       <c r="K11">
-        <v>0.2529639217288935</v>
+        <v>0.2288375401634521</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1082324548497144</v>
       </c>
       <c r="M11">
-        <v>1.402698761795904</v>
+        <v>0.06876636084854404</v>
       </c>
       <c r="N11">
-        <v>0.1377704401418782</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.27298888307444</v>
+        <v>1.416835613488416</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1426212712713451</v>
       </c>
       <c r="Q11">
-        <v>0.8463428206949288</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2727143056265575</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.7601363900785287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.531867328710462</v>
+        <v>1.529049268102426</v>
       </c>
       <c r="C12">
-        <v>0.2378221979274713</v>
+        <v>0.2263181018505378</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04493204064295009</v>
+        <v>0.04342258219009487</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.1706978861286998</v>
+        <v>0.1706888990656168</v>
       </c>
       <c r="H12">
-        <v>0.05995585355525179</v>
+        <v>0.05950309038647106</v>
       </c>
       <c r="I12">
-        <v>0.003100489710836207</v>
+        <v>0.00282399399079214</v>
       </c>
       <c r="J12">
-        <v>0.2144332213616558</v>
+        <v>0.2119089125757756</v>
       </c>
       <c r="K12">
-        <v>0.2343191369149773</v>
+        <v>0.2145697927661976</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1042253886717565</v>
       </c>
       <c r="M12">
-        <v>1.479262602492298</v>
+        <v>0.06247722248828236</v>
       </c>
       <c r="N12">
-        <v>0.08459432594087701</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.2420177289863865</v>
+        <v>1.488527650801899</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.08824491099581167</v>
       </c>
       <c r="Q12">
-        <v>0.758586295663342</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2419284101387262</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.6843469786652392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.514726133363041</v>
+        <v>1.515756316886865</v>
       </c>
       <c r="C13">
-        <v>0.2580745806486675</v>
+        <v>0.2441801492955022</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04245822899776153</v>
+        <v>0.04130423825639395</v>
       </c>
       <c r="F13">
         <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.1516374871491308</v>
+        <v>0.1487827186278956</v>
       </c>
       <c r="H13">
-        <v>0.1160115152777621</v>
+        <v>0.11551270849057</v>
       </c>
       <c r="I13">
-        <v>0.003222904188386444</v>
+        <v>0.002887647959120443</v>
       </c>
       <c r="J13">
-        <v>0.2038502300072693</v>
+        <v>0.2105816284078212</v>
       </c>
       <c r="K13">
-        <v>0.2241252081772611</v>
+        <v>0.2084877592784898</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1029658952498331</v>
       </c>
       <c r="M13">
-        <v>1.514125243322241</v>
+        <v>0.05898832085624095</v>
       </c>
       <c r="N13">
-        <v>0.04676587410497035</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.2071327220322203</v>
+        <v>1.519201653145046</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.04973131330050862</v>
       </c>
       <c r="Q13">
-        <v>0.6959783455538258</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2071946910978539</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.6389661200190098</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.482141211160041</v>
+        <v>1.485744920894291</v>
       </c>
       <c r="C14">
-        <v>0.2723813578820966</v>
+        <v>0.2565506739619536</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.04498785071065914</v>
+        <v>0.04393391253132073</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.1418680466923394</v>
+        <v>0.1342961771195164</v>
       </c>
       <c r="H14">
-        <v>0.1656056823670298</v>
+        <v>0.1650563175135602</v>
       </c>
       <c r="I14">
-        <v>0.003484708697828687</v>
+        <v>0.003083800257506653</v>
       </c>
       <c r="J14">
-        <v>0.1987509079916308</v>
+        <v>0.2107565255463832</v>
       </c>
       <c r="K14">
-        <v>0.2212474016732305</v>
+        <v>0.2077552073472226</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1030350397257318</v>
       </c>
       <c r="M14">
-        <v>1.519951199868643</v>
+        <v>0.05797778133933962</v>
       </c>
       <c r="N14">
-        <v>0.0295090622644647</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.1813585073529183</v>
+        <v>1.522379913505574</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.03222701653447047</v>
       </c>
       <c r="Q14">
-        <v>0.6645249837620497</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1815065028477889</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.6197018076552574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.464261594655312</v>
+        <v>1.468444363700655</v>
       </c>
       <c r="C15">
-        <v>0.275531827427713</v>
+        <v>0.2592556274952074</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.04614816896101814</v>
+        <v>0.04511390713335661</v>
       </c>
       <c r="F15">
         <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.1403723209356968</v>
+        <v>0.1307701077615668</v>
       </c>
       <c r="H15">
-        <v>0.1782297676163438</v>
+        <v>0.1776549517710322</v>
       </c>
       <c r="I15">
-        <v>0.003720668649433101</v>
+        <v>0.00330526393871633</v>
       </c>
       <c r="J15">
-        <v>0.1982250382036082</v>
+        <v>0.2111955410223203</v>
       </c>
       <c r="K15">
-        <v>0.2216938161569756</v>
+        <v>0.2085538078190932</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1032431258695508</v>
       </c>
       <c r="M15">
-        <v>1.512521275038893</v>
+        <v>0.05815480950857488</v>
       </c>
       <c r="N15">
-        <v>0.0265414913509936</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1741095403251833</v>
+        <v>1.514462294418394</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.02924732092595939</v>
       </c>
       <c r="Q15">
-        <v>0.6602196172557768</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1742741374747752</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.6187622158923318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.373346048590861</v>
+        <v>1.377117703821426</v>
       </c>
       <c r="C16">
-        <v>0.2659460925023609</v>
+        <v>0.2502804566554744</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.04564717806259821</v>
+        <v>0.04476063771452043</v>
       </c>
       <c r="F16">
         <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.147868692904856</v>
+        <v>0.1311417886529149</v>
       </c>
       <c r="H16">
-        <v>0.166126923758128</v>
+        <v>0.1654106603501333</v>
       </c>
       <c r="I16">
-        <v>0.004422770503724749</v>
+        <v>0.003826828766394286</v>
       </c>
       <c r="J16">
-        <v>0.2049106414742159</v>
+        <v>0.2186857606719528</v>
       </c>
       <c r="K16">
-        <v>0.2301576314875806</v>
+        <v>0.2163144001222945</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1047225324586583</v>
       </c>
       <c r="M16">
-        <v>1.421909749902369</v>
+        <v>0.06148219302451974</v>
       </c>
       <c r="N16">
-        <v>0.02701092392175752</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1642396752469502</v>
+        <v>1.425324595971176</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.02999594278685613</v>
       </c>
       <c r="Q16">
-        <v>0.6899482038318112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1643814367674707</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.6538907508595102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.321008940760549</v>
+        <v>1.323326385270065</v>
       </c>
       <c r="C17">
-        <v>0.2508565083711858</v>
+        <v>0.2364033595010966</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.04324407202153413</v>
+        <v>0.04240472727388767</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.1585948421313486</v>
+        <v>0.1386226457510222</v>
       </c>
       <c r="H17">
-        <v>0.1287088645674146</v>
+        <v>0.1279100784605873</v>
       </c>
       <c r="I17">
-        <v>0.004860115879883331</v>
+        <v>0.004161936968749558</v>
       </c>
       <c r="J17">
-        <v>0.2126949013044062</v>
+        <v>0.2274240886330023</v>
       </c>
       <c r="K17">
-        <v>0.2379377548790425</v>
+        <v>0.2230502768885601</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1064193641611526</v>
       </c>
       <c r="M17">
-        <v>1.349603310230691</v>
+        <v>0.06436695349518562</v>
       </c>
       <c r="N17">
-        <v>0.03498404684424017</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1700525640509767</v>
+        <v>1.35518705449627</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.0383094651415874</v>
       </c>
       <c r="Q17">
-        <v>0.728897331897965</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1701436658484603</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.6919044212590535</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.296629777172313</v>
+        <v>1.296154648534099</v>
       </c>
       <c r="C18">
-        <v>0.2302157411174051</v>
+        <v>0.2175792433451704</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04267572333950634</v>
+        <v>0.0416688280657857</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.1755371090843276</v>
+        <v>0.1525284100577906</v>
       </c>
       <c r="H18">
-        <v>0.07592080892394648</v>
+        <v>0.07510178171300197</v>
       </c>
       <c r="I18">
-        <v>0.004754794127732609</v>
+        <v>0.003972217991397464</v>
       </c>
       <c r="J18">
-        <v>0.2233602621649595</v>
+        <v>0.2379113970703273</v>
       </c>
       <c r="K18">
-        <v>0.2483865384404114</v>
+        <v>0.2316812687797407</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1092867670648456</v>
       </c>
       <c r="M18">
-        <v>1.284644221244406</v>
+        <v>0.06779053565423565</v>
       </c>
       <c r="N18">
-        <v>0.05816947390805893</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1909312928999931</v>
+        <v>1.29361205543907</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.06209885780979363</v>
       </c>
       <c r="Q18">
-        <v>0.7871124939542966</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.190924078520144</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.7440951320650697</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.294457609187845</v>
+        <v>1.290279516174536</v>
       </c>
       <c r="C19">
-        <v>0.2106536497592373</v>
+        <v>0.1997354658983141</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.04914513871187776</v>
+        <v>0.04758145624000942</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.1980537522575148</v>
+        <v>0.1713662532645124</v>
       </c>
       <c r="H19">
-        <v>0.03028557992099223</v>
+        <v>0.0295172087595077</v>
       </c>
       <c r="I19">
-        <v>0.004767359805047278</v>
+        <v>0.004038284375090129</v>
       </c>
       <c r="J19">
-        <v>0.2362603152767875</v>
+        <v>0.2493847002577674</v>
       </c>
       <c r="K19">
-        <v>0.2628907286965969</v>
+        <v>0.2431847776265599</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1135334039503819</v>
       </c>
       <c r="M19">
-        <v>1.233634047889637</v>
+        <v>0.07217794080758377</v>
       </c>
       <c r="N19">
-        <v>0.1039752926174558</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.2238339458207932</v>
+        <v>1.246681721461755</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1089025390035872</v>
       </c>
       <c r="Q19">
-        <v>0.8618694343149613</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2236796916120234</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.8079246655752215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.358218748873043</v>
+        <v>1.347659478467136</v>
       </c>
       <c r="C20">
-        <v>0.1907341132240603</v>
+        <v>0.1814247789358134</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.07402012127061042</v>
+        <v>0.0708406179279244</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.2363582406353117</v>
+        <v>0.2062789251586423</v>
       </c>
       <c r="H20">
-        <v>0.002680122552308539</v>
+        <v>0.002130777535691575</v>
       </c>
       <c r="I20">
-        <v>0.004104346690356309</v>
+        <v>0.003597971034166036</v>
       </c>
       <c r="J20">
-        <v>0.2555031426407908</v>
+        <v>0.2598214418605238</v>
       </c>
       <c r="K20">
-        <v>0.2881274140585894</v>
+        <v>0.2612234698568336</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1199136304178507</v>
       </c>
       <c r="M20">
-        <v>1.218325424957357</v>
+        <v>0.07984330204911494</v>
       </c>
       <c r="N20">
-        <v>0.2095725921224414</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.2897148728961199</v>
+        <v>1.237579075698591</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2165123025357474</v>
       </c>
       <c r="Q20">
-        <v>0.9835027552335589</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2892569229184616</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.9018900107515151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.527904508719047</v>
+        <v>1.515899423477435</v>
       </c>
       <c r="C21">
-        <v>0.1966250641027187</v>
+        <v>0.1875764603317762</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.08046586567899361</v>
+        <v>0.07681691119578282</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.2358316409387413</v>
+        <v>0.2352828846824551</v>
       </c>
       <c r="H21">
-        <v>0.001424680656389676</v>
+        <v>0.001106539576705368</v>
       </c>
       <c r="I21">
-        <v>0.003094041430355077</v>
+        <v>0.002939148348227505</v>
       </c>
       <c r="J21">
-        <v>0.2503467476378844</v>
+        <v>0.223999002910082</v>
       </c>
       <c r="K21">
-        <v>0.2806088089453578</v>
+        <v>0.2469616524733613</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1136958613088259</v>
       </c>
       <c r="M21">
-        <v>1.356352099275881</v>
+        <v>0.07718956900900231</v>
       </c>
       <c r="N21">
-        <v>0.2415663704134658</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.3302524118995365</v>
+        <v>1.375172895375101</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2481909897514498</v>
       </c>
       <c r="Q21">
-        <v>0.9718886354518474</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3297064155882126</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.8490149492497068</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.639287878039767</v>
+        <v>1.626759325356232</v>
       </c>
       <c r="C22">
-        <v>0.2007735203967727</v>
+        <v>0.1917153307188144</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.08328171814208929</v>
+        <v>0.07945090573608837</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.2348473491525951</v>
+        <v>0.2594047666557131</v>
       </c>
       <c r="H22">
-        <v>0.0009025431572535769</v>
+        <v>0.0006947319795835849</v>
       </c>
       <c r="I22">
-        <v>0.00230251665871517</v>
+        <v>0.002264242361222912</v>
       </c>
       <c r="J22">
-        <v>0.2466730375529878</v>
+        <v>0.210192415103336</v>
       </c>
       <c r="K22">
-        <v>0.275260824886681</v>
+        <v>0.2371588095046118</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1098082924827857</v>
       </c>
       <c r="M22">
-        <v>1.447973120808399</v>
+        <v>0.07534605559742324</v>
       </c>
       <c r="N22">
-        <v>0.2565495685770713</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.3540117252174895</v>
+        <v>1.465961023943237</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2628113862001555</v>
       </c>
       <c r="Q22">
-        <v>0.9622986984267357</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3534202385552661</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.8113811205446808</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.581075693523758</v>
+        <v>1.568433565105693</v>
       </c>
       <c r="C23">
-        <v>0.197940633424821</v>
+        <v>0.1891047525965845</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0819618347329687</v>
+        <v>0.078181701776602</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.2363663845384281</v>
+        <v>0.2431908231315916</v>
       </c>
       <c r="H23">
-        <v>0.00116201908658764</v>
+        <v>0.0008964024549823479</v>
       </c>
       <c r="I23">
-        <v>0.002384553584354521</v>
+        <v>0.002223691347525758</v>
       </c>
       <c r="J23">
-        <v>0.2491599735791752</v>
+        <v>0.2181761426767181</v>
       </c>
       <c r="K23">
-        <v>0.2789398448370708</v>
+        <v>0.2436155265649713</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1122124370988447</v>
       </c>
       <c r="M23">
-        <v>1.397765655531458</v>
+        <v>0.07688684074840957</v>
       </c>
       <c r="N23">
-        <v>0.248323129027213</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.3414002425230152</v>
+        <v>1.416753371124003</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.254880984409283</v>
       </c>
       <c r="Q23">
-        <v>0.9706265318521758</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3408151531553116</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.8377961409751009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.358365662565063</v>
+        <v>1.347374639262512</v>
       </c>
       <c r="C24">
-        <v>0.1882931479841545</v>
+        <v>0.178831486006807</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0766494334789467</v>
+        <v>0.07332059362901688</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.2413244584259715</v>
+        <v>0.210401466527685</v>
       </c>
       <c r="H24">
-        <v>0.002483509495175507</v>
+        <v>0.001943522607978143</v>
       </c>
       <c r="I24">
-        <v>0.003567578183914399</v>
+        <v>0.002965955483842819</v>
       </c>
       <c r="J24">
-        <v>0.2582259702975378</v>
+        <v>0.2623759240718329</v>
       </c>
       <c r="K24">
-        <v>0.2921179707369355</v>
+        <v>0.2644867234496413</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1211118551334973</v>
       </c>
       <c r="M24">
-        <v>1.209830646803795</v>
+        <v>0.08108838594361778</v>
       </c>
       <c r="N24">
-        <v>0.2176171733885326</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.2935301688760177</v>
+        <v>1.229493623318945</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2247405067406874</v>
       </c>
       <c r="Q24">
-        <v>0.9997318910712636</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2930489603691271</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.9160185399495191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.117557407941547</v>
+        <v>1.111856399614879</v>
       </c>
       <c r="C25">
-        <v>0.1779890703539166</v>
+        <v>0.1646194227792748</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.07088264829803315</v>
+        <v>0.06836003010465852</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.2484564483250864</v>
+        <v>0.2176962171142875</v>
       </c>
       <c r="H25">
-        <v>0.004567065283180627</v>
+        <v>0.003673024149925708</v>
       </c>
       <c r="I25">
-        <v>0.005580905238357303</v>
+        <v>0.004423399591282795</v>
       </c>
       <c r="J25">
-        <v>0.269117311192943</v>
+        <v>0.27571956725372</v>
       </c>
       <c r="K25">
-        <v>0.3076315036415735</v>
+        <v>0.2812361205825713</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1296860704634426</v>
       </c>
       <c r="M25">
-        <v>1.007106767298666</v>
+        <v>0.08415440788092354</v>
       </c>
       <c r="N25">
-        <v>0.1846258484314163</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.2418815147041826</v>
+        <v>1.021700787497224</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.1913173065355309</v>
       </c>
       <c r="Q25">
-        <v>1.037216200045464</v>
+        <v>0.2416445403910643</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.9635301495744173</v>
       </c>
     </row>
   </sheetData>
